--- a/Homework_3/Task1/Clients/Triangle.xlsx
+++ b/Homework_3/Task1/Clients/Triangle.xlsx
@@ -1,60 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="DDP_price" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DDP_price" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>EURUSD=X</t>
-  </si>
-  <si>
-    <t>OIL</t>
-  </si>
-  <si>
-    <t>DDP_price_Triangle</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -69,36 +49,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -386,5826 +424,5868 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E347"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>EURUSD=X</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>OIL</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>DDP_price_Triangle</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.2005</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" s="2" t="n">
+        <v>43102</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.2012</v>
+      </c>
+      <c r="D3" t="n">
+        <v>59.15</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" s="2" t="n">
+        <v>43103</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.2063</v>
+      </c>
+      <c r="D4" t="n">
+        <v>59.15</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1302.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>43101</v>
-      </c>
-      <c r="C2">
-        <v>1.2005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>43102</v>
-      </c>
-      <c r="C3">
-        <v>1.2012</v>
-      </c>
-      <c r="D3">
+      <c r="B5" s="2" t="n">
+        <v>43104</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.201</v>
+      </c>
+      <c r="D5" t="n">
         <v>59.15</v>
       </c>
-      <c r="E3">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>43103</v>
-      </c>
-      <c r="C4">
-        <v>1.2063</v>
-      </c>
-      <c r="D4">
-        <v>59.15</v>
-      </c>
-      <c r="E4">
-        <v>1302.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>43104</v>
-      </c>
-      <c r="C5">
-        <v>1.201</v>
-      </c>
-      <c r="D5">
-        <v>59.15</v>
-      </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>1306.13</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="2" t="n">
         <v>43105</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>1.2069</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>60.44</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>1319.25</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="2" t="n">
         <v>43108</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>1.2037</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>60.44</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>1321.36</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="2" t="n">
         <v>43109</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>1.197</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>61.83</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>1344.2</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="2" t="n">
         <v>43110</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>1.1929</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>62.48</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>1355.64</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="2" t="n">
         <v>43111</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>1.1956</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>62.5</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>1354.04</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="2" t="n">
         <v>43112</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>1.2042</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>62.46</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>1347.6</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="2" t="n">
         <v>43115</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>1.2192</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="2" t="n">
         <v>43116</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>1.2268</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>62.75</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>1336.21</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="2" t="n">
         <v>43117</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>1.2271</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>63.05</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>1339.88</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="2" t="n">
         <v>43118</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>1.2184</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>62.92</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>1344</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="2" t="n">
         <v>43119</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>1.2237</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>62.47</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>1334.63</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="2" t="n">
         <v>43122</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>1.2256</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>62.47</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>1333.38</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="2" t="n">
         <v>43123</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>1.2256</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>62.47</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>1333.38</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="2" t="n">
         <v>43124</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>1.231</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>62.47</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>1329.84</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="2" t="n">
         <v>43125</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>1.2391</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>64.48999999999999</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>1350.41</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1">
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="2" t="n">
         <v>43126</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>1.2392</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>65.26000000000001</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>1360.18</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1">
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="2" t="n">
         <v>43129</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>1.2428</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>64.31</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>1345.66</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1">
+    <row r="23">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="2" t="n">
         <v>43130</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>1.2381</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>63.46</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>1337.89</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1">
+    <row r="24">
+      <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="2" t="n">
         <v>43131</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>1.241</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>63.77</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>1339.95</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1">
+    <row r="25">
+      <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="2" t="n">
         <v>43132</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>1.2419</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>63.77</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>1339.36</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1">
+    <row r="26">
+      <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="2" t="n">
         <v>43133</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>1.251</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>63.75</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>1333.19</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1">
+    <row r="27">
+      <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="2" t="n">
         <v>43136</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>1.2447</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>62.88</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>1326.21</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1">
+    <row r="28">
+      <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="2" t="n">
         <v>43137</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>1.2368</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>62.53</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>1326.84</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1">
+    <row r="29">
+      <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="2" t="n">
         <v>43138</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>1.2381</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>60.9</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>1305.14</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1">
+    <row r="30">
+      <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="2" t="n">
         <v>43139</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>1.2268</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>60.9</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>1312.32</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1">
+    <row r="31">
+      <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="2" t="n">
         <v>43140</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>1.2261</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>58.29</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>1279.05</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1">
+    <row r="32">
+      <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="2" t="n">
         <v>43143</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>1.2253</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>59.41</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>1294.02</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1">
+    <row r="33">
+      <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="2" t="n">
         <v>43144</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>1.2304</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>59.41</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>1290.84</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1">
+    <row r="34">
+      <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="2" t="n">
         <v>43145</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>1.2354</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>59.12</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>1284.02</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1">
+    <row r="35">
+      <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="2" t="n">
         <v>43146</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>1.2467</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>59.12</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>1277.15</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1">
+    <row r="36">
+      <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="2" t="n">
         <v>43147</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>1.2504</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>60.65</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>1294.31</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1">
+    <row r="37">
+      <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="2" t="n">
         <v>43150</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>1.2412</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1">
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="2" t="n">
         <v>43151</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>1.2399</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>60.65</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>1300.82</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1">
+    <row r="39">
+      <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="2" t="n">
         <v>43152</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>1.2335</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>60.95</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>1308.69</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="1">
+    <row r="40">
+      <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="2" t="n">
         <v>43153</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>1.2282</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>62.05</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>1326.25</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="1">
+    <row r="41">
+      <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="2" t="n">
         <v>43154</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>1.2327</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>62.88</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="n">
         <v>1334</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="1">
+    <row r="42">
+      <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="2" t="n">
         <v>43157</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>1.2287</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>63.48</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="n">
         <v>1344.36</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="1">
+    <row r="43">
+      <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="2" t="n">
         <v>43158</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>1.2316</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>63.08</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="n">
         <v>1337.29</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="1">
+    <row r="44">
+      <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="2" t="n">
         <v>43159</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>1.223</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>63.08</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="n">
         <v>1343</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="1">
+    <row r="45">
+      <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="2" t="n">
         <v>43160</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>1.2191</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>60</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>1305.59</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="1">
+    <row r="46">
+      <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="2" t="n">
         <v>43161</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>1.2271</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>59.89</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="n">
         <v>1299.09</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="1">
+    <row r="47">
+      <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="2" t="n">
         <v>43164</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>1.2315</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>61.81</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="n">
         <v>1321.02</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="1">
+    <row r="48">
+      <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="2" t="n">
         <v>43165</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>1.2337</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>61.79</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="n">
         <v>1319.35</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="1">
+    <row r="49">
+      <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="2" t="n">
         <v>43166</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>1.2417</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="n">
         <v>61.69</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="n">
         <v>1312.96</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="1">
+    <row r="50">
+      <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="2" t="n">
         <v>43167</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>1.2415</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>61.69</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="n">
         <v>1313.09</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="1">
+    <row r="51">
+      <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="2" t="n">
         <v>43168</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>1.2307</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="n">
         <v>61</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="n">
         <v>1311.11</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="1">
+    <row r="52">
+      <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="2" t="n">
         <v>43171</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>1.2309</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="n">
         <v>61</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="n">
         <v>1310.99</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="1">
+    <row r="53">
+      <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="2" t="n">
         <v>43172</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>1.234</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="n">
         <v>60.1</v>
       </c>
-      <c r="E53">
+      <c r="E53" t="n">
         <v>1297.46</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="1">
+    <row r="54">
+      <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="2" t="n">
         <v>43173</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>1.2392</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="n">
         <v>60.14</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="n">
         <v>1294.74</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="1">
+    <row r="55">
+      <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="2" t="n">
         <v>43174</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>1.2376</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="n">
         <v>60.14</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="n">
         <v>1295.73</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="1">
+    <row r="56">
+      <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="2" t="n">
         <v>43175</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>1.2309</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="n">
         <v>61.79</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="n">
         <v>1321.15</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="1">
+    <row r="57">
+      <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="2" t="n">
         <v>43178</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>1.2281</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="n">
         <v>61.67</v>
       </c>
-      <c r="E57">
+      <c r="E57" t="n">
         <v>1321.42</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="1">
+    <row r="58">
+      <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="2" t="n">
         <v>43179</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>1.2337</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="n">
         <v>62.92</v>
       </c>
-      <c r="E58">
+      <c r="E58" t="n">
         <v>1333.86</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="1">
+    <row r="59">
+      <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="2" t="n">
         <v>43180</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>1.2252</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="n">
         <v>64.58</v>
       </c>
-      <c r="E59">
+      <c r="E59" t="n">
         <v>1360.92</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="1">
+    <row r="60">
+      <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="2" t="n">
         <v>43181</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>1.2348</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="n">
         <v>63.85</v>
       </c>
-      <c r="E60">
+      <c r="E60" t="n">
         <v>1345.07</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="1">
+    <row r="61">
+      <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="2" t="n">
         <v>43182</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>1.2325</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="n">
         <v>63.85</v>
       </c>
-      <c r="E61">
+      <c r="E61" t="n">
         <v>1346.6</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="1">
+    <row r="62">
+      <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="2" t="n">
         <v>43185</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>1.2354</v>
       </c>
-      <c r="D62">
+      <c r="D62" t="n">
         <v>65.13</v>
       </c>
-      <c r="E62">
+      <c r="E62" t="n">
         <v>1361.08</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="1">
+    <row r="63">
+      <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="2" t="n">
         <v>43186</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="n">
         <v>1.2457</v>
       </c>
-      <c r="D63">
+      <c r="D63" t="n">
         <v>64.23999999999999</v>
       </c>
-      <c r="E63">
+      <c r="E63" t="n">
         <v>1342.86</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="1">
+    <row r="64">
+      <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="2" t="n">
         <v>43187</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>1.2408</v>
       </c>
-      <c r="D64">
+      <c r="D64" t="n">
         <v>63.83</v>
       </c>
-      <c r="E64">
+      <c r="E64" t="n">
         <v>1340.85</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="1">
+    <row r="65">
+      <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="2" t="n">
         <v>43188</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>1.231</v>
       </c>
-      <c r="D65">
+      <c r="D65" t="n">
         <v>63.83</v>
       </c>
-      <c r="E65">
+      <c r="E65" t="n">
         <v>1347.34</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="1">
+    <row r="66">
+      <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="2" t="n">
         <v>43189</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="n">
         <v>1.2303</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="1">
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="2" t="n">
         <v>43192</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>1.2314</v>
       </c>
-      <c r="D67">
+      <c r="D67" t="n">
         <v>62.54</v>
       </c>
-      <c r="E67">
+      <c r="E67" t="n">
         <v>1330.48</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="1">
+    <row r="68">
+      <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="2" t="n">
         <v>43193</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="n">
         <v>1.2293</v>
       </c>
-      <c r="D68">
+      <c r="D68" t="n">
         <v>63.12</v>
       </c>
-      <c r="E68">
+      <c r="E68" t="n">
         <v>1339.33</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="1">
+    <row r="69">
+      <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="2" t="n">
         <v>43194</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="n">
         <v>1.2279</v>
       </c>
-      <c r="D69">
+      <c r="D69" t="n">
         <v>62.9</v>
       </c>
-      <c r="E69">
+      <c r="E69" t="n">
         <v>1337.41</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="1">
+    <row r="70">
+      <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="2" t="n">
         <v>43195</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="n">
         <v>1.2287</v>
       </c>
-      <c r="D70">
+      <c r="D70" t="n">
         <v>63.14</v>
       </c>
-      <c r="E70">
+      <c r="E70" t="n">
         <v>1339.98</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="1">
+    <row r="71">
+      <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="2" t="n">
         <v>43196</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="n">
         <v>1.2252</v>
       </c>
-      <c r="D71">
+      <c r="D71" t="n">
         <v>62.38</v>
       </c>
-      <c r="E71">
+      <c r="E71" t="n">
         <v>1332.48</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="1">
+    <row r="72">
+      <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="2" t="n">
         <v>43199</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="n">
         <v>1.2271</v>
       </c>
-      <c r="D72">
+      <c r="D72" t="n">
         <v>62.82</v>
       </c>
-      <c r="E72">
+      <c r="E72" t="n">
         <v>1336.91</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="1">
+    <row r="73">
+      <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="2" t="n">
         <v>43200</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="n">
         <v>1.2322</v>
       </c>
-      <c r="D73">
+      <c r="D73" t="n">
         <v>65.29000000000001</v>
       </c>
-      <c r="E73">
+      <c r="E73" t="n">
         <v>1365.31</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="1">
+    <row r="74">
+      <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="2" t="n">
         <v>43201</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="n">
         <v>1.2363</v>
       </c>
-      <c r="D74">
+      <c r="D74" t="n">
         <v>66.34</v>
       </c>
-      <c r="E74">
+      <c r="E74" t="n">
         <v>1375.98</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="1">
+    <row r="75">
+      <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="2" t="n">
         <v>43202</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="n">
         <v>1.2372</v>
       </c>
-      <c r="D75">
+      <c r="D75" t="n">
         <v>66.25</v>
       </c>
-      <c r="E75">
+      <c r="E75" t="n">
         <v>1374.21</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="1">
+    <row r="76">
+      <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="2" t="n">
         <v>43203</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="n">
         <v>1.233</v>
       </c>
-      <c r="D76">
+      <c r="D76" t="n">
         <v>66.72</v>
       </c>
-      <c r="E76">
+      <c r="E76" t="n">
         <v>1383.13</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="1">
+    <row r="77">
+      <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="2" t="n">
         <v>43206</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="n">
         <v>1.2333</v>
       </c>
-      <c r="D77">
+      <c r="D77" t="n">
         <v>65.8</v>
       </c>
-      <c r="E77">
+      <c r="E77" t="n">
         <v>1371.11</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="1">
+    <row r="78">
+      <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="2" t="n">
         <v>43207</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="n">
         <v>1.2385</v>
       </c>
-      <c r="D78">
+      <c r="D78" t="n">
         <v>66.03</v>
       </c>
-      <c r="E78">
+      <c r="E78" t="n">
         <v>1370.5</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="1">
+    <row r="79">
+      <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="2" t="n">
         <v>43208</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="n">
         <v>1.2373</v>
       </c>
-      <c r="D79">
+      <c r="D79" t="n">
         <v>67.31999999999999</v>
       </c>
-      <c r="E79">
+      <c r="E79" t="n">
         <v>1387.84</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="1">
+    <row r="80">
+      <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="2" t="n">
         <v>43209</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="n">
         <v>1.2379</v>
       </c>
-      <c r="D80">
+      <c r="D80" t="n">
         <v>67.84999999999999</v>
       </c>
-      <c r="E80">
+      <c r="E80" t="n">
         <v>1394.2</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="1">
+    <row r="81">
+      <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="2" t="n">
         <v>43210</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="n">
         <v>1.2346</v>
       </c>
-      <c r="D81">
+      <c r="D81" t="n">
         <v>68.09999999999999</v>
       </c>
-      <c r="E81">
+      <c r="E81" t="n">
         <v>1399.73</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="1">
+    <row r="82">
+      <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="2" t="n">
         <v>43213</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="n">
         <v>1.2273</v>
       </c>
-      <c r="D82">
+      <c r="D82" t="n">
         <v>67.55</v>
       </c>
-      <c r="E82">
+      <c r="E82" t="n">
         <v>1397.83</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="1">
+    <row r="83">
+      <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="2" t="n">
         <v>43214</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="n">
         <v>1.2209</v>
       </c>
-      <c r="D83">
+      <c r="D83" t="n">
         <v>67.29000000000001</v>
       </c>
-      <c r="E83">
+      <c r="E83" t="n">
         <v>1399.02</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="1">
+    <row r="84">
+      <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="2" t="n">
         <v>43215</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="n">
         <v>1.2241</v>
       </c>
-      <c r="D84">
+      <c r="D84" t="n">
         <v>67.40000000000001</v>
       </c>
-      <c r="E84">
+      <c r="E84" t="n">
         <v>1398.16</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="1">
+    <row r="85">
+      <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="2" t="n">
         <v>43216</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="n">
         <v>1.2172</v>
       </c>
-      <c r="D85">
+      <c r="D85" t="n">
         <v>67.52</v>
       </c>
-      <c r="E85">
+      <c r="E85" t="n">
         <v>1404.67</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="1">
+    <row r="86">
+      <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="2" t="n">
         <v>43217</v>
       </c>
-      <c r="C86">
+      <c r="C86" t="n">
         <v>1.211</v>
       </c>
-      <c r="D86">
+      <c r="D86" t="n">
         <v>67.56999999999999</v>
       </c>
-      <c r="E86">
+      <c r="E86" t="n">
         <v>1409.82</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="1">
+    <row r="87">
+      <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="2" t="n">
         <v>43220</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="n">
         <v>1.2123</v>
       </c>
-      <c r="D87">
+      <c r="D87" t="n">
         <v>68</v>
       </c>
-      <c r="E87">
+      <c r="E87" t="n">
         <v>1414.49</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="1">
+    <row r="88">
+      <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="2" t="n">
         <v>43221</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="n">
         <v>1.2081</v>
       </c>
-      <c r="D88">
+      <c r="D88" t="n">
         <v>67</v>
       </c>
-      <c r="E88">
+      <c r="E88" t="n">
         <v>1404.47</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="1">
+    <row r="89">
+      <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="2" t="n">
         <v>43222</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="n">
         <v>1.1992</v>
       </c>
-      <c r="D89">
+      <c r="D89" t="n">
         <v>67.39</v>
       </c>
-      <c r="E89">
+      <c r="E89" t="n">
         <v>1416.14</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="1">
+    <row r="90">
+      <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="2" t="n">
         <v>43223</v>
       </c>
-      <c r="C90">
+      <c r="C90" t="n">
         <v>1.1951</v>
       </c>
-      <c r="D90">
+      <c r="D90" t="n">
         <v>67.95</v>
       </c>
-      <c r="E90">
+      <c r="E90" t="n">
         <v>1426.62</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="1">
+    <row r="91">
+      <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="2" t="n">
         <v>43224</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="n">
         <v>1.1989</v>
       </c>
-      <c r="D91">
+      <c r="D91" t="n">
         <v>69.31</v>
       </c>
-      <c r="E91">
+      <c r="E91" t="n">
         <v>1441.73</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="1">
+    <row r="92">
+      <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="2" t="n">
         <v>43227</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="n">
         <v>1.1955</v>
       </c>
-      <c r="D92">
+      <c r="D92" t="n">
         <v>69.37</v>
       </c>
-      <c r="E92">
+      <c r="E92" t="n">
         <v>1445.13</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="1">
+    <row r="93">
+      <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="2" t="n">
         <v>43228</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="n">
         <v>1.1934</v>
       </c>
-      <c r="D93">
+      <c r="D93" t="n">
         <v>68.93000000000001</v>
       </c>
-      <c r="E93">
+      <c r="E93" t="n">
         <v>1440.91</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="1">
+    <row r="94">
+      <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="2" t="n">
         <v>43229</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="n">
         <v>1.1868</v>
       </c>
-      <c r="D94">
+      <c r="D94" t="n">
         <v>70.73999999999999</v>
       </c>
-      <c r="E94">
+      <c r="E94" t="n">
         <v>1470.15</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="1">
+    <row r="95">
+      <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="2" t="n">
         <v>43230</v>
       </c>
-      <c r="C95">
+      <c r="C95" t="n">
         <v>1.1847</v>
       </c>
-      <c r="D95">
+      <c r="D95" t="n">
         <v>71.01000000000001</v>
       </c>
-      <c r="E95">
+      <c r="E95" t="n">
         <v>1475.44</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="1">
+    <row r="96">
+      <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="2" t="n">
         <v>43231</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="n">
         <v>1.1918</v>
       </c>
-      <c r="D96">
+      <c r="D96" t="n">
         <v>70.52</v>
       </c>
-      <c r="E96">
+      <c r="E96" t="n">
         <v>1463.27</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="1">
+    <row r="97">
+      <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="2" t="n">
         <v>43234</v>
       </c>
-      <c r="C97">
+      <c r="C97" t="n">
         <v>1.1952</v>
       </c>
-      <c r="D97">
+      <c r="D97" t="n">
         <v>70.73</v>
       </c>
-      <c r="E97">
+      <c r="E97" t="n">
         <v>1463.39</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="1">
+    <row r="98">
+      <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="2" t="n">
         <v>43235</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="n">
         <v>1.1931</v>
       </c>
-      <c r="D98">
+      <c r="D98" t="n">
         <v>71</v>
       </c>
-      <c r="E98">
+      <c r="E98" t="n">
         <v>1468.62</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="1">
+    <row r="99">
+      <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="2" t="n">
         <v>43236</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="n">
         <v>1.1821</v>
       </c>
-      <c r="D99">
+      <c r="D99" t="n">
         <v>71.20999999999999</v>
       </c>
-      <c r="E99">
+      <c r="E99" t="n">
         <v>1480.21</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="1">
+    <row r="100">
+      <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="2" t="n">
         <v>43237</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="n">
         <v>1.1817</v>
       </c>
-      <c r="D100">
+      <c r="D100" t="n">
         <v>71.29000000000001</v>
       </c>
-      <c r="E100">
+      <c r="E100" t="n">
         <v>1481.6</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="1">
+    <row r="101">
+      <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="2" t="n">
         <v>43238</v>
       </c>
-      <c r="C101">
+      <c r="C101" t="n">
         <v>1.1795</v>
       </c>
-      <c r="D101">
+      <c r="D101" t="n">
         <v>70.78</v>
       </c>
-      <c r="E101">
+      <c r="E101" t="n">
         <v>1476.53</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="1">
+    <row r="102">
+      <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="2" t="n">
         <v>43241</v>
       </c>
-      <c r="C102">
+      <c r="C102" t="n">
         <v>1.1767</v>
       </c>
-      <c r="D102">
+      <c r="D102" t="n">
         <v>72.18000000000001</v>
       </c>
-      <c r="E102">
+      <c r="E102" t="n">
         <v>1497.64</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="1">
+    <row r="103">
+      <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="2" t="n">
         <v>43242</v>
       </c>
-      <c r="C103">
+      <c r="C103" t="n">
         <v>1.1792</v>
       </c>
-      <c r="D103">
+      <c r="D103" t="n">
         <v>71.95999999999999</v>
       </c>
-      <c r="E103">
+      <c r="E103" t="n">
         <v>1492.63</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="1">
+    <row r="104">
+      <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="2" t="n">
         <v>43243</v>
       </c>
-      <c r="C104">
+      <c r="C104" t="n">
         <v>1.1789</v>
       </c>
-      <c r="D104">
+      <c r="D104" t="n">
         <v>71.36</v>
       </c>
-      <c r="E104">
+      <c r="E104" t="n">
         <v>1484.81</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="1">
+    <row r="105">
+      <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="2" t="n">
         <v>43244</v>
       </c>
-      <c r="C105">
+      <c r="C105" t="n">
         <v>1.171</v>
       </c>
-      <c r="D105">
+      <c r="D105" t="n">
         <v>70.31999999999999</v>
       </c>
-      <c r="E105">
+      <c r="E105" t="n">
         <v>1477.21</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="1">
+    <row r="106">
+      <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="2" t="n">
         <v>43245</v>
       </c>
-      <c r="C106">
+      <c r="C106" t="n">
         <v>1.1723</v>
       </c>
-      <c r="D106">
+      <c r="D106" t="n">
         <v>67.39</v>
       </c>
-      <c r="E106">
+      <c r="E106" t="n">
         <v>1436.57</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="1">
+    <row r="107">
+      <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="2" t="n">
         <v>43248</v>
       </c>
-      <c r="C107">
+      <c r="C107" t="n">
         <v>1.1689</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="1">
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="2" t="n">
         <v>43249</v>
       </c>
-      <c r="C108">
+      <c r="C108" t="n">
         <v>1.1627</v>
       </c>
-      <c r="D108">
+      <c r="D108" t="n">
         <v>66.08</v>
       </c>
-      <c r="E108">
+      <c r="E108" t="n">
         <v>1426.24</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="1">
+    <row r="109">
+      <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="2" t="n">
         <v>43250</v>
       </c>
-      <c r="C109">
+      <c r="C109" t="n">
         <v>1.1539</v>
       </c>
-      <c r="D109">
+      <c r="D109" t="n">
         <v>67.97</v>
       </c>
-      <c r="E109">
+      <c r="E109" t="n">
         <v>1459.05</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="1">
+    <row r="110">
+      <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="2" t="n">
         <v>43251</v>
       </c>
-      <c r="C110">
+      <c r="C110" t="n">
         <v>1.1667</v>
       </c>
-      <c r="D110">
+      <c r="D110" t="n">
         <v>66.86</v>
       </c>
-      <c r="E110">
+      <c r="E110" t="n">
         <v>1433.74</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="1">
+    <row r="111">
+      <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="2" t="n">
         <v>43252</v>
       </c>
-      <c r="C111">
+      <c r="C111" t="n">
         <v>1.1693</v>
       </c>
-      <c r="D111">
+      <c r="D111" t="n">
         <v>65.5</v>
       </c>
-      <c r="E111">
+      <c r="E111" t="n">
         <v>1413.3</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="1">
+    <row r="112">
+      <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="2" t="n">
         <v>43255</v>
       </c>
-      <c r="C112">
+      <c r="C112" t="n">
         <v>1.1669</v>
       </c>
-      <c r="D112">
+      <c r="D112" t="n">
         <v>64.55</v>
       </c>
-      <c r="E112">
+      <c r="E112" t="n">
         <v>1402.23</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="1">
+    <row r="113">
+      <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="2" t="n">
         <v>43256</v>
       </c>
-      <c r="C113">
+      <c r="C113" t="n">
         <v>1.1701</v>
       </c>
-      <c r="D113">
+      <c r="D113" t="n">
         <v>65.06999999999999</v>
       </c>
-      <c r="E113">
+      <c r="E113" t="n">
         <v>1406.87</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="1">
+    <row r="114">
+      <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="2" t="n">
         <v>43257</v>
       </c>
-      <c r="C114">
+      <c r="C114" t="n">
         <v>1.1726</v>
       </c>
-      <c r="D114">
+      <c r="D114" t="n">
         <v>64.79000000000001</v>
       </c>
-      <c r="E114">
+      <c r="E114" t="n">
         <v>1401.21</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="1">
+    <row r="115">
+      <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115" s="2" t="n">
         <v>43258</v>
       </c>
-      <c r="C115">
+      <c r="C115" t="n">
         <v>1.1786</v>
       </c>
-      <c r="D115">
+      <c r="D115" t="n">
         <v>65.8</v>
       </c>
-      <c r="E115">
+      <c r="E115" t="n">
         <v>1410.33</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="1">
+    <row r="116">
+      <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="2" t="n">
         <v>43259</v>
       </c>
-      <c r="C116">
+      <c r="C116" t="n">
         <v>1.1795</v>
       </c>
-      <c r="D116">
+      <c r="D116" t="n">
         <v>65.45999999999999</v>
       </c>
-      <c r="E116">
+      <c r="E116" t="n">
         <v>1405.09</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="1">
+    <row r="117">
+      <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="2" t="n">
         <v>43262</v>
       </c>
-      <c r="C117">
+      <c r="C117" t="n">
         <v>1.1784</v>
       </c>
-      <c r="D117">
+      <c r="D117" t="n">
         <v>65.73999999999999</v>
       </c>
-      <c r="E117">
+      <c r="E117" t="n">
         <v>1409.67</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="1">
+    <row r="118">
+      <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="2" t="n">
         <v>43263</v>
       </c>
-      <c r="C118">
+      <c r="C118" t="n">
         <v>1.1774</v>
       </c>
-      <c r="D118">
+      <c r="D118" t="n">
         <v>66.05</v>
       </c>
-      <c r="E118">
+      <c r="E118" t="n">
         <v>1414.6</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="1">
+    <row r="119">
+      <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="2" t="n">
         <v>43264</v>
       </c>
-      <c r="C119">
+      <c r="C119" t="n">
         <v>1.1748</v>
       </c>
-      <c r="D119">
+      <c r="D119" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="E119">
+      <c r="E119" t="n">
         <v>1423.98</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="1">
+    <row r="120">
+      <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120" s="2" t="n">
         <v>43265</v>
       </c>
-      <c r="C120">
+      <c r="C120" t="n">
         <v>1.1808</v>
       </c>
-      <c r="D120">
+      <c r="D120" t="n">
         <v>66.64</v>
       </c>
-      <c r="E120">
+      <c r="E120" t="n">
         <v>1419.95</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="1">
+    <row r="121">
+      <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121" s="2" t="n">
         <v>43266</v>
       </c>
-      <c r="C121">
+      <c r="C121" t="n">
         <v>1.1567</v>
       </c>
-      <c r="D121">
+      <c r="D121" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="E121">
+      <c r="E121" t="n">
         <v>1407.9</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="1">
+    <row r="122">
+      <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" s="2" t="n">
         <v>43269</v>
       </c>
-      <c r="C122">
+      <c r="C122" t="n">
         <v>1.1596</v>
       </c>
-      <c r="D122">
+      <c r="D122" t="n">
         <v>65.55</v>
       </c>
-      <c r="E122">
+      <c r="E122" t="n">
         <v>1421.41</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="1">
+    <row r="123">
+      <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123" s="2" t="n">
         <v>43270</v>
       </c>
-      <c r="C123">
+      <c r="C123" t="n">
         <v>1.1631</v>
       </c>
-      <c r="D123">
+      <c r="D123" t="n">
         <v>64.73999999999999</v>
       </c>
-      <c r="E123">
+      <c r="E123" t="n">
         <v>1407.68</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="1">
+    <row r="124">
+      <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="2" t="n">
         <v>43271</v>
       </c>
-      <c r="C124">
+      <c r="C124" t="n">
         <v>1.1589</v>
       </c>
-      <c r="D124">
+      <c r="D124" t="n">
         <v>65.48</v>
       </c>
-      <c r="E124">
+      <c r="E124" t="n">
         <v>1420.99</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="1">
+    <row r="125">
+      <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125" s="2" t="n">
         <v>43272</v>
       </c>
-      <c r="C125">
+      <c r="C125" t="n">
         <v>1.1579</v>
       </c>
-      <c r="D125">
+      <c r="D125" t="n">
         <v>65.28</v>
       </c>
-      <c r="E125">
+      <c r="E125" t="n">
         <v>1419.03</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="1">
+    <row r="126">
+      <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126" s="2" t="n">
         <v>43273</v>
       </c>
-      <c r="C126">
+      <c r="C126" t="n">
         <v>1.1606</v>
       </c>
-      <c r="D126">
+      <c r="D126" t="n">
         <v>68.54000000000001</v>
       </c>
-      <c r="E126">
+      <c r="E126" t="n">
         <v>1461.44</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="1">
+    <row r="127">
+      <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127" s="2" t="n">
         <v>43276</v>
       </c>
-      <c r="C127">
+      <c r="C127" t="n">
         <v>1.1661</v>
       </c>
-      <c r="D127">
+      <c r="D127" t="n">
         <v>67.86</v>
       </c>
-      <c r="E127">
+      <c r="E127" t="n">
         <v>1447.79</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="1">
+    <row r="128">
+      <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="2" t="n">
         <v>43277</v>
       </c>
-      <c r="C128">
+      <c r="C128" t="n">
         <v>1.1703</v>
       </c>
-      <c r="D128">
+      <c r="D128" t="n">
         <v>70.31</v>
       </c>
-      <c r="E128">
+      <c r="E128" t="n">
         <v>1477.65</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="1">
+    <row r="129">
+      <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="2" t="n">
         <v>43278</v>
       </c>
-      <c r="C129">
+      <c r="C129" t="n">
         <v>1.165</v>
       </c>
-      <c r="D129">
+      <c r="D129" t="n">
         <v>72.28</v>
       </c>
-      <c r="E129">
+      <c r="E129" t="n">
         <v>1508.76</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="1">
+    <row r="130">
+      <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130" s="2" t="n">
         <v>43279</v>
       </c>
-      <c r="C130">
+      <c r="C130" t="n">
         <v>1.1564</v>
       </c>
-      <c r="D130">
+      <c r="D130" t="n">
         <v>73.05</v>
       </c>
-      <c r="E130">
+      <c r="E130" t="n">
         <v>1526.62</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="1">
+    <row r="131">
+      <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131" s="2" t="n">
         <v>43280</v>
       </c>
-      <c r="C131">
+      <c r="C131" t="n">
         <v>1.1563</v>
       </c>
-      <c r="D131">
+      <c r="D131" t="n">
         <v>74.17</v>
       </c>
-      <c r="E131">
+      <c r="E131" t="n">
         <v>1542.04</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="1">
+    <row r="132">
+      <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" s="2" t="n">
         <v>43283</v>
       </c>
-      <c r="C132">
+      <c r="C132" t="n">
         <v>1.1679</v>
       </c>
-      <c r="D132">
+      <c r="D132" t="n">
         <v>73.78</v>
       </c>
-      <c r="E132">
+      <c r="E132" t="n">
         <v>1526.66</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="1">
+    <row r="133">
+      <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133" s="2" t="n">
         <v>43284</v>
       </c>
-      <c r="C133">
+      <c r="C133" t="n">
         <v>1.1642</v>
       </c>
-      <c r="D133">
+      <c r="D133" t="n">
         <v>73.40000000000001</v>
       </c>
-      <c r="E133">
+      <c r="E133" t="n">
         <v>1524.67</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="1">
+    <row r="134">
+      <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134" s="2" t="n">
         <v>43285</v>
       </c>
-      <c r="C134">
+      <c r="C134" t="n">
         <v>1.1659</v>
       </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="1">
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135" s="2" t="n">
         <v>43286</v>
       </c>
-      <c r="C135">
+      <c r="C135" t="n">
         <v>1.1662</v>
       </c>
-      <c r="D135">
+      <c r="D135" t="n">
         <v>72.65000000000001</v>
       </c>
-      <c r="E135">
+      <c r="E135" t="n">
         <v>1512.77</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="1">
+    <row r="136">
+      <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136" s="2" t="n">
         <v>43287</v>
       </c>
-      <c r="C136">
+      <c r="C136" t="n">
         <v>1.1696</v>
       </c>
-      <c r="D136">
+      <c r="D136" t="n">
         <v>73.45</v>
       </c>
-      <c r="E136">
+      <c r="E136" t="n">
         <v>1520.74</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="1">
+    <row r="137">
+      <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137" s="2" t="n">
         <v>43290</v>
       </c>
-      <c r="C137">
+      <c r="C137" t="n">
         <v>1.1752</v>
       </c>
-      <c r="D137">
+      <c r="D137" t="n">
         <v>73.95999999999999</v>
       </c>
-      <c r="E137">
+      <c r="E137" t="n">
         <v>1522.87</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="1">
+    <row r="138">
+      <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138" s="2" t="n">
         <v>43291</v>
       </c>
-      <c r="C138">
+      <c r="C138" t="n">
         <v>1.1757</v>
       </c>
-      <c r="D138">
+      <c r="D138" t="n">
         <v>73.97</v>
       </c>
-      <c r="E138">
+      <c r="E138" t="n">
         <v>1522.58</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="1">
+    <row r="139">
+      <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139" s="2" t="n">
         <v>43292</v>
       </c>
-      <c r="C139">
+      <c r="C139" t="n">
         <v>1.1727</v>
       </c>
-      <c r="D139">
+      <c r="D139" t="n">
         <v>70.61</v>
       </c>
-      <c r="E139">
+      <c r="E139" t="n">
         <v>1479.75</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="1">
+    <row r="140">
+      <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140" s="2" t="n">
         <v>43293</v>
       </c>
-      <c r="C140">
+      <c r="C140" t="n">
         <v>1.1677</v>
       </c>
-      <c r="D140">
+      <c r="D140" t="n">
         <v>70.42</v>
       </c>
-      <c r="E140">
+      <c r="E140" t="n">
         <v>1481.26</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="1">
+    <row r="141">
+      <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141" s="2" t="n">
         <v>43294</v>
       </c>
-      <c r="C141">
+      <c r="C141" t="n">
         <v>1.1666</v>
       </c>
-      <c r="D141">
+      <c r="D141" t="n">
         <v>70.95999999999999</v>
       </c>
-      <c r="E141">
+      <c r="E141" t="n">
         <v>1489.49</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
-      <c r="A142" s="1">
+    <row r="142">
+      <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142" s="2" t="n">
         <v>43297</v>
       </c>
-      <c r="C142">
+      <c r="C142" t="n">
         <v>1.1679</v>
       </c>
-      <c r="D142">
+      <c r="D142" t="n">
         <v>68.64</v>
       </c>
-      <c r="E142">
+      <c r="E142" t="n">
         <v>1456.95</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
-      <c r="A143" s="1">
+    <row r="143">
+      <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143" s="2" t="n">
         <v>43298</v>
       </c>
-      <c r="C143">
+      <c r="C143" t="n">
         <v>1.1709</v>
       </c>
-      <c r="D143">
+      <c r="D143" t="n">
         <v>68.33</v>
       </c>
-      <c r="E143">
+      <c r="E143" t="n">
         <v>1450.37</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
-      <c r="A144" s="1">
+    <row r="144">
+      <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144" s="2" t="n">
         <v>43299</v>
       </c>
-      <c r="C144">
+      <c r="C144" t="n">
         <v>1.1653</v>
       </c>
-      <c r="D144">
+      <c r="D144" t="n">
         <v>69.09</v>
       </c>
-      <c r="E144">
+      <c r="E144" t="n">
         <v>1465.14</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
-      <c r="A145" s="1">
+    <row r="145">
+      <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145" s="2" t="n">
         <v>43300</v>
       </c>
-      <c r="C145">
+      <c r="C145" t="n">
         <v>1.1646</v>
       </c>
-      <c r="D145">
+      <c r="D145" t="n">
         <v>69.38</v>
       </c>
-      <c r="E145">
+      <c r="E145" t="n">
         <v>1469.65</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
-      <c r="A146" s="1">
+    <row r="146">
+      <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146" s="2" t="n">
         <v>43301</v>
       </c>
-      <c r="C146">
+      <c r="C146" t="n">
         <v>1.1655</v>
       </c>
-      <c r="D146">
+      <c r="D146" t="n">
         <v>69.43000000000001</v>
       </c>
-      <c r="E146">
+      <c r="E146" t="n">
         <v>1469.6</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
-      <c r="A147" s="1">
+    <row r="147">
+      <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147" s="2" t="n">
         <v>43304</v>
       </c>
-      <c r="C147">
+      <c r="C147" t="n">
         <v>1.1742</v>
       </c>
-      <c r="D147">
+      <c r="D147" t="n">
         <v>69.19</v>
       </c>
-      <c r="E147">
+      <c r="E147" t="n">
         <v>1459.38</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="1">
+    <row r="148">
+      <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148" s="2" t="n">
         <v>43305</v>
       </c>
-      <c r="C148">
+      <c r="C148" t="n">
         <v>1.1694</v>
       </c>
-      <c r="D148">
+      <c r="D148" t="n">
         <v>69.68000000000001</v>
       </c>
-      <c r="E148">
+      <c r="E148" t="n">
         <v>1469.84</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="1">
+    <row r="149">
+      <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149" s="2" t="n">
         <v>43306</v>
       </c>
-      <c r="C149">
+      <c r="C149" t="n">
         <v>1.1686</v>
       </c>
-      <c r="D149">
+      <c r="D149" t="n">
         <v>70.68000000000001</v>
       </c>
-      <c r="E149">
+      <c r="E149" t="n">
         <v>1484.04</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="1">
+    <row r="150">
+      <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150" s="2" t="n">
         <v>43307</v>
       </c>
-      <c r="C150">
+      <c r="C150" t="n">
         <v>1.1738</v>
       </c>
-      <c r="D150">
+      <c r="D150" t="n">
         <v>70.81</v>
       </c>
-      <c r="E150">
+      <c r="E150" t="n">
         <v>1481.55</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="1">
+    <row r="151">
+      <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151" s="2" t="n">
         <v>43308</v>
       </c>
-      <c r="C151">
+      <c r="C151" t="n">
         <v>1.1643</v>
       </c>
-      <c r="D151">
+      <c r="D151" t="n">
         <v>70.14</v>
       </c>
-      <c r="E151">
+      <c r="E151" t="n">
         <v>1480.24</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="1">
+    <row r="152">
+      <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152" s="2" t="n">
         <v>43311</v>
       </c>
-      <c r="C152">
+      <c r="C152" t="n">
         <v>1.166</v>
       </c>
-      <c r="D152">
+      <c r="D152" t="n">
         <v>71.27</v>
       </c>
-      <c r="E152">
+      <c r="E152" t="n">
         <v>1494.2</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
-      <c r="A153" s="1">
+    <row r="153">
+      <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153" s="2" t="n">
         <v>43312</v>
       </c>
-      <c r="C153">
+      <c r="C153" t="n">
         <v>1.1707</v>
       </c>
-      <c r="D153">
+      <c r="D153" t="n">
         <v>70.06999999999999</v>
       </c>
-      <c r="E153">
+      <c r="E153" t="n">
         <v>1474.07</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
-      <c r="A154" s="1">
+    <row r="154">
+      <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154" s="2" t="n">
         <v>43313</v>
       </c>
-      <c r="C154">
+      <c r="C154" t="n">
         <v>1.169</v>
       </c>
-      <c r="D154">
+      <c r="D154" t="n">
         <v>68.7</v>
       </c>
-      <c r="E154">
+      <c r="E154" t="n">
         <v>1456.89</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
-      <c r="A155" s="1">
+    <row r="155">
+      <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155" s="2" t="n">
         <v>43314</v>
       </c>
-      <c r="C155">
+      <c r="C155" t="n">
         <v>1.1666</v>
       </c>
-      <c r="D155">
+      <c r="D155" t="n">
         <v>70.45</v>
       </c>
-      <c r="E155">
+      <c r="E155" t="n">
         <v>1482.56</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
-      <c r="A156" s="1">
+    <row r="156">
+      <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156" s="2" t="n">
         <v>43315</v>
       </c>
-      <c r="C156">
+      <c r="C156" t="n">
         <v>1.1586</v>
       </c>
-      <c r="D156">
+      <c r="D156" t="n">
         <v>69.56999999999999</v>
       </c>
-      <c r="E156">
+      <c r="E156" t="n">
         <v>1477.14</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
-      <c r="A157" s="1">
+    <row r="157">
+      <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157" s="2" t="n">
         <v>43318</v>
       </c>
-      <c r="C157">
+      <c r="C157" t="n">
         <v>1.1562</v>
       </c>
-      <c r="D157">
+      <c r="D157" t="n">
         <v>70.20999999999999</v>
       </c>
-      <c r="E157">
+      <c r="E157" t="n">
         <v>1487.88</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
-      <c r="A158" s="1">
+    <row r="158">
+      <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B158" s="2" t="n">
         <v>43319</v>
       </c>
-      <c r="C158">
+      <c r="C158" t="n">
         <v>1.1558</v>
       </c>
-      <c r="D158">
+      <c r="D158" t="n">
         <v>70.62</v>
       </c>
-      <c r="E158">
+      <c r="E158" t="n">
         <v>1493.83</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
-      <c r="A159" s="1">
+    <row r="159">
+      <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159" s="2" t="n">
         <v>43320</v>
       </c>
-      <c r="C159">
+      <c r="C159" t="n">
         <v>1.1603</v>
       </c>
-      <c r="D159">
+      <c r="D159" t="n">
         <v>68.23999999999999</v>
       </c>
-      <c r="E159">
+      <c r="E159" t="n">
         <v>1457.59</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
-      <c r="A160" s="1">
+    <row r="160">
+      <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160" s="2" t="n">
         <v>43321</v>
       </c>
-      <c r="C160">
+      <c r="C160" t="n">
         <v>1.1611</v>
       </c>
-      <c r="D160">
+      <c r="D160" t="n">
         <v>68.18000000000001</v>
       </c>
-      <c r="E160">
+      <c r="E160" t="n">
         <v>1456.13</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
-      <c r="A161" s="1">
+    <row r="161">
+      <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161" s="2" t="n">
         <v>43322</v>
       </c>
-      <c r="C161">
+      <c r="C161" t="n">
         <v>1.1524</v>
       </c>
-      <c r="D161">
+      <c r="D161" t="n">
         <v>68.95999999999999</v>
       </c>
-      <c r="E161">
+      <c r="E161" t="n">
         <v>1473.87</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
-      <c r="A162" s="1">
+    <row r="162">
+      <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B162" s="2" t="n">
         <v>43325</v>
       </c>
-      <c r="C162">
+      <c r="C162" t="n">
         <v>1.1395</v>
       </c>
-      <c r="D162">
+      <c r="D162" t="n">
         <v>68.75</v>
       </c>
-      <c r="E162">
+      <c r="E162" t="n">
         <v>1481.68</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
-      <c r="A163" s="1">
+    <row r="163">
+      <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163" s="2" t="n">
         <v>43326</v>
       </c>
-      <c r="C163">
+      <c r="C163" t="n">
         <v>1.1403</v>
       </c>
-      <c r="D163">
+      <c r="D163" t="n">
         <v>68.41</v>
       </c>
-      <c r="E163">
+      <c r="E163" t="n">
         <v>1476.29</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
-      <c r="A164" s="1">
+    <row r="164">
+      <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B164" s="2" t="n">
         <v>43327</v>
       </c>
-      <c r="C164">
+      <c r="C164" t="n">
         <v>1.1346</v>
       </c>
-      <c r="D164">
+      <c r="D164" t="n">
         <v>66.43000000000001</v>
       </c>
-      <c r="E164">
+      <c r="E164" t="n">
         <v>1453.42</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
-      <c r="A165" s="1">
+    <row r="165">
+      <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B165" s="2" t="n">
         <v>43328</v>
       </c>
-      <c r="C165">
+      <c r="C165" t="n">
         <v>1.1344</v>
       </c>
-      <c r="D165">
+      <c r="D165" t="n">
         <v>66.90000000000001</v>
       </c>
-      <c r="E165">
+      <c r="E165" t="n">
         <v>1460.15</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
-      <c r="A166" s="1">
+    <row r="166">
+      <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B166" s="2" t="n">
         <v>43329</v>
       </c>
-      <c r="C166">
+      <c r="C166" t="n">
         <v>1.1371</v>
       </c>
-      <c r="D166">
+      <c r="D166" t="n">
         <v>67.19</v>
       </c>
-      <c r="E166">
+      <c r="E166" t="n">
         <v>1461.97</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
-      <c r="A167" s="1">
+    <row r="167">
+      <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B167" s="2" t="n">
         <v>43332</v>
       </c>
-      <c r="C167">
+      <c r="C167" t="n">
         <v>1.1438</v>
       </c>
-      <c r="D167">
+      <c r="D167" t="n">
         <v>67.33</v>
       </c>
-      <c r="E167">
+      <c r="E167" t="n">
         <v>1458.42</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
-      <c r="A168" s="1">
+    <row r="168">
+      <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
-      <c r="B168" s="2">
+      <c r="B168" s="2" t="n">
         <v>43333</v>
       </c>
-      <c r="C168">
+      <c r="C168" t="n">
         <v>1.1491</v>
       </c>
-      <c r="D168">
+      <c r="D168" t="n">
         <v>67.79000000000001</v>
       </c>
-      <c r="E168">
+      <c r="E168" t="n">
         <v>1460.46</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
-      <c r="A169" s="1">
+    <row r="169">
+      <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
-      <c r="B169" s="2">
+      <c r="B169" s="2" t="n">
         <v>43334</v>
       </c>
-      <c r="C169">
+      <c r="C169" t="n">
         <v>1.1577</v>
       </c>
-      <c r="D169">
+      <c r="D169" t="n">
         <v>70.16</v>
       </c>
-      <c r="E169">
+      <c r="E169" t="n">
         <v>1485.95</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
-      <c r="A170" s="1">
+    <row r="170">
+      <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="B170" s="2">
+      <c r="B170" s="2" t="n">
         <v>43335</v>
       </c>
-      <c r="C170">
+      <c r="C170" t="n">
         <v>1.1585</v>
       </c>
-      <c r="D170">
+      <c r="D170" t="n">
         <v>70.16</v>
       </c>
-      <c r="E170">
+      <c r="E170" t="n">
         <v>1485.29</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
-      <c r="A171" s="1">
+    <row r="171">
+      <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
-      <c r="B171" s="2">
+      <c r="B171" s="2" t="n">
         <v>43336</v>
       </c>
-      <c r="C171">
+      <c r="C171" t="n">
         <v>1.1543</v>
       </c>
-      <c r="D171">
+      <c r="D171" t="n">
         <v>70.73999999999999</v>
       </c>
-      <c r="E171">
+      <c r="E171" t="n">
         <v>1496.74</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
-      <c r="A172" s="1">
+    <row r="172">
+      <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="B172" s="2">
+      <c r="B172" s="2" t="n">
         <v>43339</v>
       </c>
-      <c r="C172">
+      <c r="C172" t="n">
         <v>1.1649</v>
       </c>
-      <c r="D172">
+      <c r="D172" t="n">
         <v>71.03</v>
       </c>
-      <c r="E172">
+      <c r="E172" t="n">
         <v>1491.85</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
-      <c r="A173" s="1">
+    <row r="173">
+      <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="B173" s="2">
+      <c r="B173" s="2" t="n">
         <v>43340</v>
       </c>
-      <c r="C173">
+      <c r="C173" t="n">
         <v>1.1684</v>
       </c>
-      <c r="D173">
+      <c r="D173" t="n">
         <v>71.03</v>
       </c>
-      <c r="E173">
+      <c r="E173" t="n">
         <v>1488.95</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
-      <c r="A174" s="1">
+    <row r="174">
+      <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
-      <c r="B174" s="2">
+      <c r="B174" s="2" t="n">
         <v>43341</v>
       </c>
-      <c r="C174">
+      <c r="C174" t="n">
         <v>1.1691</v>
       </c>
-      <c r="D174">
+      <c r="D174" t="n">
         <v>71.47</v>
       </c>
-      <c r="E174">
+      <c r="E174" t="n">
         <v>1494.34</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
-      <c r="A175" s="1">
+    <row r="175">
+      <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
-      <c r="B175" s="2">
+      <c r="B175" s="2" t="n">
         <v>43342</v>
       </c>
-      <c r="C175">
+      <c r="C175" t="n">
         <v>1.171</v>
       </c>
-      <c r="D175">
+      <c r="D175" t="n">
         <v>72.47</v>
       </c>
-      <c r="E175">
+      <c r="E175" t="n">
         <v>1506.29</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
-      <c r="A176" s="1">
+    <row r="176">
+      <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="B176" s="2">
+      <c r="B176" s="2" t="n">
         <v>43343</v>
       </c>
-      <c r="C176">
+      <c r="C176" t="n">
         <v>1.1665</v>
       </c>
-      <c r="D176">
+      <c r="D176" t="n">
         <v>72.06999999999999</v>
       </c>
-      <c r="E176">
+      <c r="E176" t="n">
         <v>1504.64</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
-      <c r="A177" s="1">
+    <row r="177">
+      <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="B177" s="2">
+      <c r="B177" s="2" t="n">
         <v>43346</v>
       </c>
-      <c r="C177">
+      <c r="C177" t="n">
         <v>1.1601</v>
       </c>
-    </row>
-    <row r="178" spans="1:5">
-      <c r="A178" s="1">
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="B178" s="2">
+      <c r="B178" s="2" t="n">
         <v>43347</v>
       </c>
-      <c r="C178">
+      <c r="C178" t="n">
         <v>1.1615</v>
       </c>
-      <c r="D178">
+      <c r="D178" t="n">
         <v>71.27</v>
       </c>
-      <c r="E178">
+      <c r="E178" t="n">
         <v>1497.95</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
-      <c r="A179" s="1">
+    <row r="179">
+      <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
-      <c r="B179" s="2">
+      <c r="B179" s="2" t="n">
         <v>43348</v>
       </c>
-      <c r="C179">
+      <c r="C179" t="n">
         <v>1.1587</v>
       </c>
-      <c r="D179">
+      <c r="D179" t="n">
         <v>70.97</v>
       </c>
-      <c r="E179">
+      <c r="E179" t="n">
         <v>1496.19</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
-      <c r="A180" s="1">
+    <row r="180">
+      <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
-      <c r="B180" s="2">
+      <c r="B180" s="2" t="n">
         <v>43349</v>
       </c>
-      <c r="C180">
+      <c r="C180" t="n">
         <v>1.1635</v>
       </c>
-      <c r="D180">
+      <c r="D180" t="n">
         <v>69.95999999999999</v>
       </c>
-      <c r="E180">
+      <c r="E180" t="n">
         <v>1478.44</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
-      <c r="A181" s="1">
+    <row r="181">
+      <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
-      <c r="B181" s="2">
+      <c r="B181" s="2" t="n">
         <v>43350</v>
       </c>
-      <c r="C181">
+      <c r="C181" t="n">
         <v>1.162</v>
       </c>
-      <c r="D181">
+      <c r="D181" t="n">
         <v>69.88</v>
       </c>
-      <c r="E181">
+      <c r="E181" t="n">
         <v>1478.58</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
-      <c r="A182" s="1">
+    <row r="182">
+      <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="B182" s="2">
+      <c r="B182" s="2" t="n">
         <v>43353</v>
       </c>
-      <c r="C182">
+      <c r="C182" t="n">
         <v>1.1561</v>
       </c>
-      <c r="D182">
+      <c r="D182" t="n">
         <v>69.64</v>
       </c>
-      <c r="E182">
+      <c r="E182" t="n">
         <v>1480.15</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
-      <c r="A183" s="1">
+    <row r="183">
+      <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="B183" s="2">
+      <c r="B183" s="2" t="n">
         <v>43354</v>
       </c>
-      <c r="C183">
+      <c r="C183" t="n">
         <v>1.1596</v>
       </c>
-      <c r="D183">
+      <c r="D183" t="n">
         <v>71.67</v>
       </c>
-      <c r="E183">
+      <c r="E183" t="n">
         <v>1505</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
-      <c r="A184" s="1">
+    <row r="184">
+      <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
-      <c r="B184" s="2">
+      <c r="B184" s="2" t="n">
         <v>43355</v>
       </c>
-      <c r="C184">
+      <c r="C184" t="n">
         <v>1.1596</v>
       </c>
-      <c r="D184">
+      <c r="D184" t="n">
         <v>72.68000000000001</v>
       </c>
-      <c r="E184">
+      <c r="E184" t="n">
         <v>1518.8</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
-      <c r="A185" s="1">
+    <row r="185">
+      <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="B185" s="2">
+      <c r="B185" s="2" t="n">
         <v>43356</v>
       </c>
-      <c r="C185">
+      <c r="C185" t="n">
         <v>1.1629</v>
       </c>
-      <c r="D185">
+      <c r="D185" t="n">
         <v>70.81</v>
       </c>
-      <c r="E185">
+      <c r="E185" t="n">
         <v>1490.51</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
-      <c r="A186" s="1">
+    <row r="186">
+      <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
-      <c r="B186" s="2">
+      <c r="B186" s="2" t="n">
         <v>43357</v>
       </c>
-      <c r="C186">
+      <c r="C186" t="n">
         <v>1.1692</v>
       </c>
-      <c r="D186">
+      <c r="D186" t="n">
         <v>71.09999999999999</v>
       </c>
-      <c r="E186">
+      <c r="E186" t="n">
         <v>1489.24</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
-      <c r="A187" s="1">
+    <row r="187">
+      <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
-      <c r="B187" s="2">
+      <c r="B187" s="2" t="n">
         <v>43360</v>
       </c>
-      <c r="C187">
+      <c r="C187" t="n">
         <v>1.1629</v>
       </c>
-      <c r="D187">
+      <c r="D187" t="n">
         <v>70.98</v>
       </c>
-      <c r="E187">
+      <c r="E187" t="n">
         <v>1492.83</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
-      <c r="A188" s="1">
+    <row r="188">
+      <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="B188" s="2">
+      <c r="B188" s="2" t="n">
         <v>43361</v>
       </c>
-      <c r="C188">
+      <c r="C188" t="n">
         <v>1.1669</v>
       </c>
-      <c r="D188">
+      <c r="D188" t="n">
         <v>72.04000000000001</v>
       </c>
-      <c r="E188">
+      <c r="E188" t="n">
         <v>1503.9</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
-      <c r="A189" s="1">
+    <row r="189">
+      <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="B189" s="2">
+      <c r="B189" s="2" t="n">
         <v>43362</v>
       </c>
-      <c r="C189">
+      <c r="C189" t="n">
         <v>1.168</v>
       </c>
-      <c r="D189">
+      <c r="D189" t="n">
         <v>72.94</v>
       </c>
-      <c r="E189">
+      <c r="E189" t="n">
         <v>1515.19</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
-      <c r="A190" s="1">
+    <row r="190">
+      <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="B190" s="2">
+      <c r="B190" s="2" t="n">
         <v>43363</v>
       </c>
-      <c r="C190">
+      <c r="C190" t="n">
         <v>1.1675</v>
       </c>
-      <c r="D190">
+      <c r="D190" t="n">
         <v>72.56</v>
       </c>
-      <c r="E190">
+      <c r="E190" t="n">
         <v>1510.45</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
-      <c r="A191" s="1">
+    <row r="191">
+      <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="B191" s="2">
+      <c r="B191" s="2" t="n">
         <v>43364</v>
       </c>
-      <c r="C191">
+      <c r="C191" t="n">
         <v>1.1776</v>
       </c>
-      <c r="D191">
+      <c r="D191" t="n">
         <v>73.15000000000001</v>
       </c>
-      <c r="E191">
+      <c r="E191" t="n">
         <v>1509.95</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
-      <c r="A192" s="1">
+    <row r="192">
+      <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
-      <c r="B192" s="2">
+      <c r="B192" s="2" t="n">
         <v>43367</v>
       </c>
-      <c r="C192">
+      <c r="C192" t="n">
         <v>1.1751</v>
       </c>
-      <c r="D192">
+      <c r="D192" t="n">
         <v>74.72</v>
       </c>
-      <c r="E192">
+      <c r="E192" t="n">
         <v>1533.2</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
-      <c r="A193" s="1">
+    <row r="193">
+      <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="B193" s="2">
+      <c r="B193" s="2" t="n">
         <v>43368</v>
       </c>
-      <c r="C193">
+      <c r="C193" t="n">
         <v>1.1753</v>
       </c>
-      <c r="D193">
+      <c r="D193" t="n">
         <v>74.87</v>
       </c>
-      <c r="E193">
+      <c r="E193" t="n">
         <v>1535.05</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
-      <c r="A194" s="1">
+    <row r="194">
+      <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="B194" s="2">
+      <c r="B194" s="2" t="n">
         <v>43369</v>
       </c>
-      <c r="C194">
+      <c r="C194" t="n">
         <v>1.1763</v>
       </c>
-      <c r="D194">
+      <c r="D194" t="n">
         <v>74.06999999999999</v>
       </c>
-      <c r="E194">
+      <c r="E194" t="n">
         <v>1523.42</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
-      <c r="A195" s="1">
+    <row r="195">
+      <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
-      <c r="B195" s="2">
+      <c r="B195" s="2" t="n">
         <v>43370</v>
       </c>
-      <c r="C195">
+      <c r="C195" t="n">
         <v>1.1749</v>
       </c>
-      <c r="D195">
+      <c r="D195" t="n">
         <v>74.73999999999999</v>
       </c>
-      <c r="E195">
+      <c r="E195" t="n">
         <v>1533.64</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
-      <c r="A196" s="1">
+    <row r="196">
+      <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
-      <c r="B196" s="2">
+      <c r="B196" s="2" t="n">
         <v>43371</v>
       </c>
-      <c r="C196">
+      <c r="C196" t="n">
         <v>1.1637</v>
       </c>
-      <c r="D196">
+      <c r="D196" t="n">
         <v>75.7</v>
       </c>
-      <c r="E196">
+      <c r="E196" t="n">
         <v>1556.41</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
-      <c r="A197" s="1">
+    <row r="197">
+      <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="B197" s="2">
+      <c r="B197" s="2" t="n">
         <v>43374</v>
       </c>
-      <c r="C197">
+      <c r="C197" t="n">
         <v>1.1605</v>
       </c>
-      <c r="D197">
+      <c r="D197" t="n">
         <v>78.15000000000001</v>
       </c>
-      <c r="E197">
+      <c r="E197" t="n">
         <v>1592.69</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
-      <c r="A198" s="1">
+    <row r="198">
+      <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="B198" s="2">
+      <c r="B198" s="2" t="n">
         <v>43375</v>
       </c>
-      <c r="C198">
+      <c r="C198" t="n">
         <v>1.1578</v>
       </c>
-      <c r="D198">
+      <c r="D198" t="n">
         <v>77.75</v>
       </c>
-      <c r="E198">
+      <c r="E198" t="n">
         <v>1589.71</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
-      <c r="A199" s="1">
+    <row r="199">
+      <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
-      <c r="B199" s="2">
+      <c r="B199" s="2" t="n">
         <v>43376</v>
       </c>
-      <c r="C199">
+      <c r="C199" t="n">
         <v>1.1552</v>
       </c>
-      <c r="D199">
+      <c r="D199" t="n">
         <v>79.06999999999999</v>
       </c>
-      <c r="E199">
+      <c r="E199" t="n">
         <v>1610.2</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
-      <c r="A200" s="1">
+    <row r="200">
+      <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="B200" s="2">
+      <c r="B200" s="2" t="n">
         <v>43377</v>
       </c>
-      <c r="C200">
+      <c r="C200" t="n">
         <v>1.1476</v>
       </c>
-      <c r="D200">
+      <c r="D200" t="n">
         <v>77.04000000000001</v>
       </c>
-      <c r="E200">
+      <c r="E200" t="n">
         <v>1589.36</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
-      <c r="A201" s="1">
+    <row r="201">
+      <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
-      <c r="B201" s="2">
+      <c r="B201" s="2" t="n">
         <v>43378</v>
       </c>
-      <c r="C201">
+      <c r="C201" t="n">
         <v>1.1518</v>
       </c>
-      <c r="D201">
+      <c r="D201" t="n">
         <v>77.02</v>
       </c>
-      <c r="E201">
+      <c r="E201" t="n">
         <v>1585.21</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
-      <c r="A202" s="1">
+    <row r="202">
+      <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="B202" s="2">
+      <c r="B202" s="2" t="n">
         <v>43381</v>
       </c>
-      <c r="C202">
+      <c r="C202" t="n">
         <v>1.1523</v>
       </c>
-      <c r="D202">
+      <c r="D202" t="n">
         <v>76.84</v>
       </c>
-      <c r="E202">
+      <c r="E202" t="n">
         <v>1582.27</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
-      <c r="A203" s="1">
+    <row r="203">
+      <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="B203" s="2">
+      <c r="B203" s="2" t="n">
         <v>43382</v>
       </c>
-      <c r="C203">
+      <c r="C203" t="n">
         <v>1.1494</v>
       </c>
-      <c r="D203">
+      <c r="D203" t="n">
         <v>77.56</v>
       </c>
-      <c r="E203">
+      <c r="E203" t="n">
         <v>1594.86</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
-      <c r="A204" s="1">
+    <row r="204">
+      <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="B204" s="2">
+      <c r="B204" s="2" t="n">
         <v>43383</v>
       </c>
-      <c r="C204">
+      <c r="C204" t="n">
         <v>1.1507</v>
       </c>
-      <c r="D204">
+      <c r="D204" t="n">
         <v>75.38</v>
       </c>
-      <c r="E204">
+      <c r="E204" t="n">
         <v>1563.65</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
-      <c r="A205" s="1">
+    <row r="205">
+      <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
-      <c r="B205" s="2">
+      <c r="B205" s="2" t="n">
         <v>43384</v>
       </c>
-      <c r="C205">
+      <c r="C205" t="n">
         <v>1.1533</v>
       </c>
-      <c r="D205">
+      <c r="D205" t="n">
         <v>73.3</v>
       </c>
-      <c r="E205">
+      <c r="E205" t="n">
         <v>1532.74</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
-      <c r="A206" s="1">
+    <row r="206">
+      <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="B206" s="2">
+      <c r="B206" s="2" t="n">
         <v>43385</v>
       </c>
-      <c r="C206">
+      <c r="C206" t="n">
         <v>1.159</v>
       </c>
-      <c r="D206">
+      <c r="D206" t="n">
         <v>74.04000000000001</v>
       </c>
-      <c r="E206">
+      <c r="E206" t="n">
         <v>1537.9</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
-      <c r="A207" s="1">
+    <row r="207">
+      <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
-      <c r="B207" s="2">
+      <c r="B207" s="2" t="n">
         <v>43388</v>
       </c>
-      <c r="C207">
+      <c r="C207" t="n">
         <v>1.1551</v>
       </c>
-      <c r="D207">
+      <c r="D207" t="n">
         <v>74.06</v>
       </c>
-      <c r="E207">
+      <c r="E207" t="n">
         <v>1541.59</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
-      <c r="A208" s="1">
+    <row r="208">
+      <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
-      <c r="B208" s="2">
+      <c r="B208" s="2" t="n">
         <v>43389</v>
       </c>
-      <c r="C208">
+      <c r="C208" t="n">
         <v>1.1583</v>
       </c>
-      <c r="D208">
+      <c r="D208" t="n">
         <v>74.43000000000001</v>
       </c>
-      <c r="E208">
+      <c r="E208" t="n">
         <v>1543.85</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
-      <c r="A209" s="1">
+    <row r="209">
+      <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="B209" s="2">
+      <c r="B209" s="2" t="n">
         <v>43390</v>
       </c>
-      <c r="C209">
+      <c r="C209" t="n">
         <v>1.1575</v>
       </c>
-      <c r="D209">
+      <c r="D209" t="n">
         <v>72.62</v>
       </c>
-      <c r="E209">
+      <c r="E209" t="n">
         <v>1519.78</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
-      <c r="A210" s="1">
+    <row r="210">
+      <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="B210" s="2">
+      <c r="B210" s="2" t="n">
         <v>43391</v>
       </c>
-      <c r="C210">
+      <c r="C210" t="n">
         <v>1.1501</v>
       </c>
-      <c r="D210">
+      <c r="D210" t="n">
         <v>71.53</v>
       </c>
-      <c r="E210">
+      <c r="E210" t="n">
         <v>1511.16</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
-      <c r="A211" s="1">
+    <row r="211">
+      <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
-      <c r="B211" s="2">
+      <c r="B211" s="2" t="n">
         <v>43392</v>
       </c>
-      <c r="C211">
+      <c r="C211" t="n">
         <v>1.146</v>
       </c>
-      <c r="D211">
+      <c r="D211" t="n">
         <v>71.53</v>
       </c>
-      <c r="E211">
+      <c r="E211" t="n">
         <v>1514.69</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
-      <c r="A212" s="1">
+    <row r="212">
+      <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="B212" s="2">
+      <c r="B212" s="2" t="n">
         <v>43395</v>
       </c>
-      <c r="C212">
+      <c r="C212" t="n">
         <v>1.1509</v>
       </c>
-      <c r="D212">
+      <c r="D212" t="n">
         <v>71.72</v>
       </c>
-      <c r="E212">
+      <c r="E212" t="n">
         <v>1513.09</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
-      <c r="A213" s="1">
+    <row r="213">
+      <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="B213" s="2">
+      <c r="B213" s="2" t="n">
         <v>43396</v>
       </c>
-      <c r="C213">
+      <c r="C213" t="n">
         <v>1.1468</v>
       </c>
-      <c r="D213">
+      <c r="D213" t="n">
         <v>69.15000000000001</v>
       </c>
-      <c r="E213">
+      <c r="E213" t="n">
         <v>1481.12</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
-      <c r="A214" s="1">
+    <row r="214">
+      <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
-      <c r="B214" s="2">
+      <c r="B214" s="2" t="n">
         <v>43397</v>
       </c>
-      <c r="C214">
+      <c r="C214" t="n">
         <v>1.1473</v>
       </c>
-      <c r="D214">
+      <c r="D214" t="n">
         <v>68.95999999999999</v>
       </c>
-      <c r="E214">
+      <c r="E214" t="n">
         <v>1478.08</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
-      <c r="A215" s="1">
+    <row r="215">
+      <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
-      <c r="B215" s="2">
+      <c r="B215" s="2" t="n">
         <v>43398</v>
       </c>
-      <c r="C215">
+      <c r="C215" t="n">
         <v>1.1399</v>
       </c>
-      <c r="D215">
+      <c r="D215" t="n">
         <v>69.86</v>
       </c>
-      <c r="E215">
+      <c r="E215" t="n">
         <v>1496.77</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
-      <c r="A216" s="1">
+    <row r="216">
+      <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
-      <c r="B216" s="2">
+      <c r="B216" s="2" t="n">
         <v>43399</v>
       </c>
-      <c r="C216">
+      <c r="C216" t="n">
         <v>1.1378</v>
       </c>
-      <c r="D216">
+      <c r="D216" t="n">
         <v>70.15000000000001</v>
       </c>
-      <c r="E216">
+      <c r="E216" t="n">
         <v>1502.6</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
-      <c r="A217" s="1">
+    <row r="217">
+      <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="B217" s="2">
+      <c r="B217" s="2" t="n">
         <v>43402</v>
       </c>
-      <c r="C217">
+      <c r="C217" t="n">
         <v>1.1399</v>
       </c>
-      <c r="D217">
+      <c r="D217" t="n">
         <v>69.14</v>
       </c>
-      <c r="E217">
+      <c r="E217" t="n">
         <v>1486.77</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
-      <c r="A218" s="1">
+    <row r="218">
+      <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="B218" s="2">
+      <c r="B218" s="2" t="n">
         <v>43403</v>
       </c>
-      <c r="C218">
+      <c r="C218" t="n">
         <v>1.1376</v>
       </c>
-      <c r="D218">
+      <c r="D218" t="n">
         <v>68.78</v>
       </c>
-      <c r="E218">
+      <c r="E218" t="n">
         <v>1483.7</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
-      <c r="A219" s="1">
+    <row r="219">
+      <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="B219" s="2">
+      <c r="B219" s="2" t="n">
         <v>43404</v>
       </c>
-      <c r="C219">
+      <c r="C219" t="n">
         <v>1.1346</v>
       </c>
-      <c r="D219">
+      <c r="D219" t="n">
         <v>67.68000000000001</v>
       </c>
-      <c r="E219">
+      <c r="E219" t="n">
         <v>1470.87</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
-      <c r="A220" s="1">
+    <row r="220">
+      <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="B220" s="2">
+      <c r="B220" s="2" t="n">
         <v>43405</v>
       </c>
-      <c r="C220">
+      <c r="C220" t="n">
         <v>1.1317</v>
       </c>
-      <c r="D220">
+      <c r="D220" t="n">
         <v>65.93000000000001</v>
       </c>
-      <c r="E220">
+      <c r="E220" t="n">
         <v>1448.8</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
-      <c r="A221" s="1">
+    <row r="221">
+      <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
-      <c r="B221" s="2">
+      <c r="B221" s="2" t="n">
         <v>43406</v>
       </c>
-      <c r="C221">
+      <c r="C221" t="n">
         <v>1.1403</v>
       </c>
-      <c r="D221">
+      <c r="D221" t="n">
         <v>65.39</v>
       </c>
-      <c r="E221">
+      <c r="E221" t="n">
         <v>1434.34</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
-      <c r="A222" s="1">
+    <row r="222">
+      <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="B222" s="2">
+      <c r="B222" s="2" t="n">
         <v>43409</v>
       </c>
-      <c r="C222">
+      <c r="C222" t="n">
         <v>1.1398</v>
       </c>
-      <c r="D222">
+      <c r="D222" t="n">
         <v>65.2</v>
       </c>
-      <c r="E222">
+      <c r="E222" t="n">
         <v>1432.1</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
-      <c r="A223" s="1">
+    <row r="223">
+      <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
-      <c r="B223" s="2">
+      <c r="B223" s="2" t="n">
         <v>43410</v>
       </c>
-      <c r="C223">
+      <c r="C223" t="n">
         <v>1.1413</v>
       </c>
-      <c r="D223">
+      <c r="D223" t="n">
         <v>64.51000000000001</v>
       </c>
-      <c r="E223">
+      <c r="E223" t="n">
         <v>1421.33</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
-      <c r="A224" s="1">
+    <row r="224">
+      <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="B224" s="2">
+      <c r="B224" s="2" t="n">
         <v>43411</v>
       </c>
-      <c r="C224">
+      <c r="C224" t="n">
         <v>1.1439</v>
       </c>
-      <c r="D224">
+      <c r="D224" t="n">
         <v>63.98</v>
       </c>
-      <c r="E224">
+      <c r="E224" t="n">
         <v>1411.95</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
-      <c r="A225" s="1">
+    <row r="225">
+      <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="B225" s="2">
+      <c r="B225" s="2" t="n">
         <v>43412</v>
       </c>
-      <c r="C225">
+      <c r="C225" t="n">
         <v>1.1434</v>
       </c>
-      <c r="D225">
+      <c r="D225" t="n">
         <v>62.98</v>
       </c>
-      <c r="E225">
+      <c r="E225" t="n">
         <v>1398.49</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
-      <c r="A226" s="1">
+    <row r="226">
+      <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
-      <c r="B226" s="2">
+      <c r="B226" s="2" t="n">
         <v>43413</v>
       </c>
-      <c r="C226">
+      <c r="C226" t="n">
         <v>1.1368</v>
       </c>
-      <c r="D226">
+      <c r="D226" t="n">
         <v>62.44</v>
       </c>
-      <c r="E226">
+      <c r="E226" t="n">
         <v>1396.03</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
-      <c r="A227" s="1">
+    <row r="227">
+      <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="B227" s="2">
+      <c r="B227" s="2" t="n">
         <v>43416</v>
       </c>
-      <c r="C227">
+      <c r="C227" t="n">
         <v>1.1325</v>
       </c>
-      <c r="D227">
+      <c r="D227" t="n">
         <v>61.17</v>
       </c>
-      <c r="E227">
+      <c r="E227" t="n">
         <v>1381.57</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
-      <c r="A228" s="1">
+    <row r="228">
+      <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
-      <c r="B228" s="2">
+      <c r="B228" s="2" t="n">
         <v>43417</v>
       </c>
-      <c r="C228">
+      <c r="C228" t="n">
         <v>1.1233</v>
       </c>
-      <c r="D228">
+      <c r="D228" t="n">
         <v>57.29</v>
       </c>
-      <c r="E228">
+      <c r="E228" t="n">
         <v>1333.86</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
-      <c r="A229" s="1">
+    <row r="229">
+      <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
-      <c r="B229" s="2">
+      <c r="B229" s="2" t="n">
         <v>43418</v>
       </c>
-      <c r="C229">
+      <c r="C229" t="n">
         <v>1.1311</v>
       </c>
-      <c r="D229">
+      <c r="D229" t="n">
         <v>58.43</v>
       </c>
-      <c r="E229">
+      <c r="E229" t="n">
         <v>1344.26</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
-      <c r="A230" s="1">
+    <row r="230">
+      <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="B230" s="2">
+      <c r="B230" s="2" t="n">
         <v>43419</v>
       </c>
-      <c r="C230">
+      <c r="C230" t="n">
         <v>1.1312</v>
       </c>
-      <c r="D230">
+      <c r="D230" t="n">
         <v>58.77</v>
       </c>
-      <c r="E230">
+      <c r="E230" t="n">
         <v>1348.95</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
-      <c r="A231" s="1">
+    <row r="231">
+      <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="B231" s="2">
+      <c r="B231" s="2" t="n">
         <v>43420</v>
       </c>
-      <c r="C231">
+      <c r="C231" t="n">
         <v>1.1325</v>
       </c>
-      <c r="D231">
+      <c r="D231" t="n">
         <v>58.97</v>
       </c>
-      <c r="E231">
+      <c r="E231" t="n">
         <v>1350.8</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
-      <c r="A232" s="1">
+    <row r="232">
+      <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
-      <c r="B232" s="2">
+      <c r="B232" s="2" t="n">
         <v>43423</v>
       </c>
-      <c r="C232">
+      <c r="C232" t="n">
         <v>1.1414</v>
       </c>
-      <c r="D232">
+      <c r="D232" t="n">
         <v>59.45</v>
       </c>
-      <c r="E232">
+      <c r="E232" t="n">
         <v>1351.03</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
-      <c r="A233" s="1">
+    <row r="233">
+      <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="B233" s="2">
+      <c r="B233" s="2" t="n">
         <v>43424</v>
       </c>
-      <c r="C233">
+      <c r="C233" t="n">
         <v>1.1455</v>
       </c>
-      <c r="D233">
+      <c r="D233" t="n">
         <v>55.26</v>
       </c>
-      <c r="E233">
+      <c r="E233" t="n">
         <v>1290.14</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
-      <c r="A234" s="1">
+    <row r="234">
+      <c r="A234" s="1" t="n">
         <v>232</v>
       </c>
-      <c r="B234" s="2">
+      <c r="B234" s="2" t="n">
         <v>43425</v>
       </c>
-      <c r="C234">
+      <c r="C234" t="n">
         <v>1.1372</v>
       </c>
-      <c r="D234">
+      <c r="D234" t="n">
         <v>56.4</v>
       </c>
-      <c r="E234">
+      <c r="E234" t="n">
         <v>1311.59</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
-      <c r="A235" s="1">
+    <row r="235">
+      <c r="A235" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B235" s="2">
+      <c r="B235" s="2" t="n">
         <v>43426</v>
       </c>
-      <c r="C235">
+      <c r="C235" t="n">
         <v>1.1388</v>
       </c>
-    </row>
-    <row r="236" spans="1:5">
-      <c r="A236" s="1">
+      <c r="D235" t="inlineStr"/>
+      <c r="E235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
         <v>234</v>
       </c>
-      <c r="B236" s="2">
+      <c r="B236" s="2" t="n">
         <v>43427</v>
       </c>
-      <c r="C236">
+      <c r="C236" t="n">
         <v>1.1403</v>
       </c>
-      <c r="D236">
+      <c r="D236" t="n">
         <v>53.2</v>
       </c>
-      <c r="E236">
+      <c r="E236" t="n">
         <v>1265.01</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
-      <c r="A237" s="1">
+    <row r="237">
+      <c r="A237" s="1" t="n">
         <v>235</v>
       </c>
-      <c r="B237" s="2">
+      <c r="B237" s="2" t="n">
         <v>43430</v>
       </c>
-      <c r="C237">
+      <c r="C237" t="n">
         <v>1.1337</v>
       </c>
-      <c r="D237">
+      <c r="D237" t="n">
         <v>53.63</v>
       </c>
-      <c r="E237">
+      <c r="E237" t="n">
         <v>1275.32</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
-      <c r="A238" s="1">
+    <row r="238">
+      <c r="A238" s="1" t="n">
         <v>236</v>
       </c>
-      <c r="B238" s="2">
+      <c r="B238" s="2" t="n">
         <v>43431</v>
       </c>
-      <c r="C238">
+      <c r="C238" t="n">
         <v>1.1333</v>
       </c>
-      <c r="D238">
+      <c r="D238" t="n">
         <v>53.77</v>
       </c>
-      <c r="E238">
+      <c r="E238" t="n">
         <v>1277.54</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
-      <c r="A239" s="1">
+    <row r="239">
+      <c r="A239" s="1" t="n">
         <v>237</v>
       </c>
-      <c r="B239" s="2">
+      <c r="B239" s="2" t="n">
         <v>43432</v>
       </c>
-      <c r="C239">
+      <c r="C239" t="n">
         <v>1.1299</v>
       </c>
-      <c r="D239">
+      <c r="D239" t="n">
         <v>52.24</v>
       </c>
-      <c r="E239">
+      <c r="E239" t="n">
         <v>1258.35</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
-      <c r="A240" s="1">
+    <row r="240">
+      <c r="A240" s="1" t="n">
         <v>238</v>
       </c>
-      <c r="B240" s="2">
+      <c r="B240" s="2" t="n">
         <v>43433</v>
       </c>
-      <c r="C240">
+      <c r="C240" t="n">
         <v>1.1369</v>
       </c>
-      <c r="D240">
+      <c r="D240" t="n">
         <v>53.23</v>
       </c>
-      <c r="E240">
+      <c r="E240" t="n">
         <v>1267.63</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
-      <c r="A241" s="1">
+    <row r="241">
+      <c r="A241" s="1" t="n">
         <v>239</v>
       </c>
-      <c r="B241" s="2">
+      <c r="B241" s="2" t="n">
         <v>43434</v>
       </c>
-      <c r="C241">
+      <c r="C241" t="n">
         <v>1.1393</v>
       </c>
-      <c r="D241">
+      <c r="D241" t="n">
         <v>52.52</v>
       </c>
-      <c r="E241">
+      <c r="E241" t="n">
         <v>1256.2</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
-      <c r="A242" s="1">
+    <row r="242">
+      <c r="A242" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="B242" s="2">
+      <c r="B242" s="2" t="n">
         <v>43437</v>
       </c>
-      <c r="C242">
+      <c r="C242" t="n">
         <v>1.1342</v>
       </c>
-      <c r="D242">
+      <c r="D242" t="n">
         <v>55.23</v>
       </c>
-      <c r="E242">
+      <c r="E242" t="n">
         <v>1297.33</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
-      <c r="A243" s="1">
+    <row r="243">
+      <c r="A243" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="B243" s="2">
+      <c r="B243" s="2" t="n">
         <v>43438</v>
       </c>
-      <c r="C243">
+      <c r="C243" t="n">
         <v>1.1355</v>
       </c>
-      <c r="D243">
+      <c r="D243" t="n">
         <v>54.92</v>
       </c>
-      <c r="E243">
+      <c r="E243" t="n">
         <v>1292.12</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
-      <c r="A244" s="1">
+    <row r="244">
+      <c r="A244" s="1" t="n">
         <v>242</v>
       </c>
-      <c r="B244" s="2">
+      <c r="B244" s="2" t="n">
         <v>43439</v>
       </c>
-      <c r="C244">
+      <c r="C244" t="n">
         <v>1.1343</v>
       </c>
-    </row>
-    <row r="245" spans="1:5">
-      <c r="A245" s="1">
+      <c r="D244" t="inlineStr"/>
+      <c r="E244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
         <v>243</v>
       </c>
-      <c r="B245" s="2">
+      <c r="B245" s="2" t="n">
         <v>43440</v>
       </c>
-      <c r="C245">
+      <c r="C245" t="n">
         <v>1.1349</v>
       </c>
-      <c r="D245">
+      <c r="D245" t="n">
         <v>53.65</v>
       </c>
-      <c r="E245">
+      <c r="E245" t="n">
         <v>1274.8</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
-      <c r="A246" s="1">
+    <row r="246">
+      <c r="A246" s="1" t="n">
         <v>244</v>
       </c>
-      <c r="B246" s="2">
+      <c r="B246" s="2" t="n">
         <v>43441</v>
       </c>
-      <c r="C246">
+      <c r="C246" t="n">
         <v>1.1375</v>
       </c>
-      <c r="D246">
+      <c r="D246" t="n">
         <v>54.48</v>
       </c>
-      <c r="E246">
+      <c r="E246" t="n">
         <v>1284.65</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
-      <c r="A247" s="1">
+    <row r="247">
+      <c r="A247" s="1" t="n">
         <v>245</v>
       </c>
-      <c r="B247" s="2">
+      <c r="B247" s="2" t="n">
         <v>43444</v>
       </c>
-      <c r="C247">
+      <c r="C247" t="n">
         <v>1.1401</v>
       </c>
-      <c r="D247">
+      <c r="D247" t="n">
         <v>52.8</v>
       </c>
-      <c r="E247">
+      <c r="E247" t="n">
         <v>1259.58</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
-      <c r="A248" s="1">
+    <row r="248">
+      <c r="A248" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="B248" s="2">
+      <c r="B248" s="2" t="n">
         <v>43445</v>
       </c>
-      <c r="C248">
+      <c r="C248" t="n">
         <v>1.1357</v>
       </c>
-      <c r="D248">
+      <c r="D248" t="n">
         <v>53.7</v>
       </c>
-      <c r="E248">
+      <c r="E248" t="n">
         <v>1274.97</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
-      <c r="A249" s="1">
+    <row r="249">
+      <c r="A249" s="1" t="n">
         <v>247</v>
       </c>
-      <c r="B249" s="2">
+      <c r="B249" s="2" t="n">
         <v>43446</v>
       </c>
-      <c r="C249">
+      <c r="C249" t="n">
         <v>1.1323</v>
       </c>
-      <c r="D249">
+      <c r="D249" t="n">
         <v>53.08</v>
       </c>
-      <c r="E249">
+      <c r="E249" t="n">
         <v>1268.55</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
-      <c r="A250" s="1">
+    <row r="250">
+      <c r="A250" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="B250" s="2">
+      <c r="B250" s="2" t="n">
         <v>43447</v>
       </c>
-      <c r="C250">
+      <c r="C250" t="n">
         <v>1.1373</v>
       </c>
-      <c r="D250">
+      <c r="D250" t="n">
         <v>55.03</v>
       </c>
-      <c r="E250">
+      <c r="E250" t="n">
         <v>1292.44</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
-      <c r="A251" s="1">
+    <row r="251">
+      <c r="A251" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="B251" s="2">
+      <c r="B251" s="2" t="n">
         <v>43448</v>
       </c>
-      <c r="C251">
+      <c r="C251" t="n">
         <v>1.1364</v>
       </c>
-      <c r="D251">
+      <c r="D251" t="n">
         <v>53.08</v>
       </c>
-      <c r="E251">
+      <c r="E251" t="n">
         <v>1265.87</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
-      <c r="A252" s="1">
+    <row r="252">
+      <c r="A252" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="B252" s="2">
+      <c r="B252" s="2" t="n">
         <v>43451</v>
       </c>
-      <c r="C252">
+      <c r="C252" t="n">
         <v>1.1306</v>
       </c>
-      <c r="D252">
+      <c r="D252" t="n">
         <v>51.27</v>
       </c>
-      <c r="E252">
+      <c r="E252" t="n">
         <v>1244.31</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
-      <c r="A253" s="1">
+    <row r="253">
+      <c r="A253" s="1" t="n">
         <v>251</v>
       </c>
-      <c r="B253" s="2">
+      <c r="B253" s="2" t="n">
         <v>43452</v>
       </c>
-      <c r="C253">
+      <c r="C253" t="n">
         <v>1.135</v>
       </c>
-      <c r="D253">
+      <c r="D253" t="n">
         <v>48.08</v>
       </c>
-      <c r="E253">
+      <c r="E253" t="n">
         <v>1197</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
-      <c r="A254" s="1">
+    <row r="254">
+      <c r="A254" s="1" t="n">
         <v>252</v>
       </c>
-      <c r="B254" s="2">
+      <c r="B254" s="2" t="n">
         <v>43453</v>
       </c>
-      <c r="C254">
+      <c r="C254" t="n">
         <v>1.1375</v>
       </c>
-      <c r="D254">
+      <c r="D254" t="n">
         <v>49.11</v>
       </c>
-      <c r="E254">
+      <c r="E254" t="n">
         <v>1209.87</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
-      <c r="A255" s="1">
+    <row r="255">
+      <c r="A255" s="1" t="n">
         <v>253</v>
       </c>
-      <c r="B255" s="2">
+      <c r="B255" s="2" t="n">
         <v>43454</v>
       </c>
-      <c r="C255">
+      <c r="C255" t="n">
         <v>1.139</v>
       </c>
-      <c r="D255">
+      <c r="D255" t="n">
         <v>47.71</v>
       </c>
-      <c r="E255">
+      <c r="E255" t="n">
         <v>1189.5</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
-      <c r="A256" s="1">
+    <row r="256">
+      <c r="A256" s="1" t="n">
         <v>254</v>
       </c>
-      <c r="B256" s="2">
+      <c r="B256" s="2" t="n">
         <v>43455</v>
       </c>
-      <c r="C256">
+      <c r="C256" t="n">
         <v>1.1457</v>
       </c>
-      <c r="D256">
+      <c r="D256" t="n">
         <v>47</v>
       </c>
-      <c r="E256">
+      <c r="E256" t="n">
         <v>1175.8</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
-      <c r="A257" s="1">
+    <row r="257">
+      <c r="A257" s="1" t="n">
         <v>255</v>
       </c>
-      <c r="B257" s="2">
+      <c r="B257" s="2" t="n">
         <v>43458</v>
       </c>
-      <c r="C257">
+      <c r="C257" t="n">
         <v>1.1373</v>
       </c>
-      <c r="D257">
+      <c r="D257" t="n">
         <v>45.58</v>
       </c>
-      <c r="E257">
+      <c r="E257" t="n">
         <v>1160.83</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
-      <c r="A258" s="1">
+    <row r="258">
+      <c r="A258" s="1" t="n">
         <v>256</v>
       </c>
-      <c r="B258" s="2">
+      <c r="B258" s="2" t="n">
         <v>43459</v>
       </c>
-      <c r="C258">
+      <c r="C258" t="n">
         <v>1.1404</v>
       </c>
-    </row>
-    <row r="259" spans="1:5">
-      <c r="A259" s="1">
+      <c r="D258" t="inlineStr"/>
+      <c r="E258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
         <v>257</v>
       </c>
-      <c r="B259" s="2">
+      <c r="B259" s="2" t="n">
         <v>43460</v>
       </c>
-      <c r="C259">
+      <c r="C259" t="n">
         <v>1.1416</v>
       </c>
-      <c r="D259">
+      <c r="D259" t="n">
         <v>48.63</v>
       </c>
-      <c r="E259">
+      <c r="E259" t="n">
         <v>1200.75</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
-      <c r="A260" s="1">
+    <row r="260">
+      <c r="A260" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="B260" s="2">
+      <c r="B260" s="2" t="n">
         <v>43461</v>
       </c>
-      <c r="C260">
+      <c r="C260" t="n">
         <v>1.1361</v>
       </c>
-      <c r="D260">
+      <c r="D260" t="n">
         <v>47.15</v>
       </c>
-      <c r="E260">
+      <c r="E260" t="n">
         <v>1183.39</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
-      <c r="A261" s="1">
+    <row r="261">
+      <c r="A261" s="1" t="n">
         <v>259</v>
       </c>
-      <c r="B261" s="2">
+      <c r="B261" s="2" t="n">
         <v>43462</v>
       </c>
-      <c r="C261">
+      <c r="C261" t="n">
         <v>1.1431</v>
       </c>
-      <c r="D261">
+      <c r="D261" t="n">
         <v>46.69</v>
       </c>
-      <c r="E261">
+      <c r="E261" t="n">
         <v>1172.99</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
-      <c r="A262" s="1">
+    <row r="262">
+      <c r="A262" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="B262" s="2">
+      <c r="B262" s="2" t="n">
         <v>43465</v>
       </c>
-      <c r="C262">
+      <c r="C262" t="n">
         <v>1.144</v>
       </c>
-      <c r="D262">
+      <c r="D262" t="n">
         <v>47.46</v>
       </c>
-      <c r="E262">
+      <c r="E262" t="n">
         <v>1183.14</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
-      <c r="A263" s="1">
+    <row r="263">
+      <c r="A263" s="1" t="n">
         <v>261</v>
       </c>
-      <c r="B263" s="2">
+      <c r="B263" s="2" t="n">
         <v>43466</v>
       </c>
-      <c r="C263">
+      <c r="C263" t="n">
         <v>1.1493</v>
       </c>
-    </row>
-    <row r="264" spans="1:5">
-      <c r="A264" s="1">
+      <c r="D263" t="inlineStr"/>
+      <c r="E263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
         <v>262</v>
       </c>
-      <c r="B264" s="2">
+      <c r="B264" s="2" t="n">
         <v>43467</v>
       </c>
-      <c r="C264">
+      <c r="C264" t="n">
         <v>1.1462</v>
       </c>
-      <c r="D264">
+      <c r="D264" t="n">
         <v>48.28</v>
       </c>
-      <c r="E264">
+      <c r="E264" t="n">
         <v>1193.21</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
-      <c r="A265" s="1">
+    <row r="265">
+      <c r="A265" s="1" t="n">
         <v>263</v>
       </c>
-      <c r="B265" s="2">
+      <c r="B265" s="2" t="n">
         <v>43468</v>
       </c>
-      <c r="C265">
+      <c r="C265" t="n">
         <v>1.1318</v>
       </c>
-      <c r="D265">
+      <c r="D265" t="n">
         <v>48.8</v>
       </c>
-      <c r="E265">
+      <c r="E265" t="n">
         <v>1208.98</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
-      <c r="A266" s="1">
+    <row r="266">
+      <c r="A266" s="1" t="n">
         <v>264</v>
       </c>
-      <c r="B266" s="2">
+      <c r="B266" s="2" t="n">
         <v>43469</v>
       </c>
-      <c r="C266">
+      <c r="C266" t="n">
         <v>1.1391</v>
       </c>
-      <c r="D266">
+      <c r="D266" t="n">
         <v>49.97</v>
       </c>
-      <c r="E266">
+      <c r="E266" t="n">
         <v>1220.87</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
-      <c r="A267" s="1">
+    <row r="267">
+      <c r="A267" s="1" t="n">
         <v>265</v>
       </c>
-      <c r="B267" s="2">
+      <c r="B267" s="2" t="n">
         <v>43472</v>
       </c>
-      <c r="C267">
+      <c r="C267" t="n">
         <v>1.141</v>
       </c>
-      <c r="D267">
+      <c r="D267" t="n">
         <v>50.44</v>
       </c>
-      <c r="E267">
+      <c r="E267" t="n">
         <v>1226.24</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
-      <c r="A268" s="1">
+    <row r="268">
+      <c r="A268" s="1" t="n">
         <v>266</v>
       </c>
-      <c r="B268" s="2">
+      <c r="B268" s="2" t="n">
         <v>43473</v>
       </c>
-      <c r="C268">
+      <c r="C268" t="n">
         <v>1.148</v>
       </c>
-      <c r="D268">
+      <c r="D268" t="n">
         <v>51.47</v>
       </c>
-      <c r="E268">
+      <c r="E268" t="n">
         <v>1236.18</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
-      <c r="A269" s="1">
+    <row r="269">
+      <c r="A269" s="1" t="n">
         <v>267</v>
       </c>
-      <c r="B269" s="2">
+      <c r="B269" s="2" t="n">
         <v>43474</v>
       </c>
-      <c r="C269">
+      <c r="C269" t="n">
         <v>1.1456</v>
       </c>
-      <c r="D269">
+      <c r="D269" t="n">
         <v>54.09</v>
       </c>
-      <c r="E269">
+      <c r="E269" t="n">
         <v>1273.89</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
-      <c r="A270" s="1">
+    <row r="270">
+      <c r="A270" s="1" t="n">
         <v>268</v>
       </c>
-      <c r="B270" s="2">
+      <c r="B270" s="2" t="n">
         <v>43475</v>
       </c>
-      <c r="C270">
+      <c r="C270" t="n">
         <v>1.1555</v>
       </c>
-      <c r="D270">
+      <c r="D270" t="n">
         <v>54.48</v>
       </c>
-      <c r="E270">
+      <c r="E270" t="n">
         <v>1272.83</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
-      <c r="A271" s="1">
+    <row r="271">
+      <c r="A271" s="1" t="n">
         <v>269</v>
       </c>
-      <c r="B271" s="2">
+      <c r="B271" s="2" t="n">
         <v>43476</v>
       </c>
-      <c r="C271">
+      <c r="C271" t="n">
         <v>1.151</v>
       </c>
-      <c r="D271">
+      <c r="D271" t="n">
         <v>53.49</v>
       </c>
-      <c r="E271">
+      <c r="E271" t="n">
         <v>1262.13</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
-      <c r="A272" s="1">
+    <row r="272">
+      <c r="A272" s="1" t="n">
         <v>270</v>
       </c>
-      <c r="B272" s="2">
+      <c r="B272" s="2" t="n">
         <v>43479</v>
       </c>
-      <c r="C272">
+      <c r="C272" t="n">
         <v>1.146</v>
       </c>
-      <c r="D272">
+      <c r="D272" t="n">
         <v>52.38</v>
       </c>
-      <c r="E272">
+      <c r="E272" t="n">
         <v>1250</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
-      <c r="A273" s="1">
+    <row r="273">
+      <c r="A273" s="1" t="n">
         <v>271</v>
       </c>
-      <c r="B273" s="2">
+      <c r="B273" s="2" t="n">
         <v>43480</v>
       </c>
-      <c r="C273">
+      <c r="C273" t="n">
         <v>1.1473</v>
       </c>
-      <c r="D273">
+      <c r="D273" t="n">
         <v>54.05</v>
       </c>
-      <c r="E273">
+      <c r="E273" t="n">
         <v>1272.23</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
-      <c r="A274" s="1">
+    <row r="274">
+      <c r="A274" s="1" t="n">
         <v>272</v>
       </c>
-      <c r="B274" s="2">
+      <c r="B274" s="2" t="n">
         <v>43481</v>
       </c>
-      <c r="C274">
+      <c r="C274" t="n">
         <v>1.1417</v>
       </c>
-      <c r="D274">
+      <c r="D274" t="n">
         <v>54.21</v>
       </c>
-      <c r="E274">
+      <c r="E274" t="n">
         <v>1278.11</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
-      <c r="A275" s="1">
+    <row r="275">
+      <c r="A275" s="1" t="n">
         <v>273</v>
       </c>
-      <c r="B275" s="2">
+      <c r="B275" s="2" t="n">
         <v>43482</v>
       </c>
-      <c r="C275">
+      <c r="C275" t="n">
         <v>1.1398</v>
       </c>
-      <c r="D275">
+      <c r="D275" t="n">
         <v>54.24</v>
       </c>
-      <c r="E275">
+      <c r="E275" t="n">
         <v>1279.78</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
-      <c r="A276" s="1">
+    <row r="276">
+      <c r="A276" s="1" t="n">
         <v>274</v>
       </c>
-      <c r="B276" s="2">
+      <c r="B276" s="2" t="n">
         <v>43483</v>
       </c>
-      <c r="C276">
+      <c r="C276" t="n">
         <v>1.1393</v>
       </c>
-      <c r="D276">
+      <c r="D276" t="n">
         <v>55.51</v>
       </c>
-      <c r="E276">
+      <c r="E276" t="n">
         <v>1297.77</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
-      <c r="A277" s="1">
+    <row r="277">
+      <c r="A277" s="1" t="n">
         <v>275</v>
       </c>
-      <c r="B277" s="2">
+      <c r="B277" s="2" t="n">
         <v>43486</v>
       </c>
-      <c r="C277">
+      <c r="C277" t="n">
         <v>1.1366</v>
       </c>
-    </row>
-    <row r="278" spans="1:5">
-      <c r="A278" s="1">
+      <c r="D277" t="inlineStr"/>
+      <c r="E277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
         <v>276</v>
       </c>
-      <c r="B278" s="2">
+      <c r="B278" s="2" t="n">
         <v>43487</v>
       </c>
-      <c r="C278">
+      <c r="C278" t="n">
         <v>1.1369</v>
       </c>
-      <c r="D278">
+      <c r="D278" t="n">
         <v>54.65</v>
       </c>
-      <c r="E278">
+      <c r="E278" t="n">
         <v>1287.42</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
-      <c r="A279" s="1">
+    <row r="279">
+      <c r="A279" s="1" t="n">
         <v>277</v>
       </c>
-      <c r="B279" s="2">
+      <c r="B279" s="2" t="n">
         <v>43488</v>
       </c>
-      <c r="C279">
+      <c r="C279" t="n">
         <v>1.1364</v>
       </c>
-      <c r="D279">
+      <c r="D279" t="n">
         <v>54.19</v>
       </c>
-      <c r="E279">
+      <c r="E279" t="n">
         <v>1281.34</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
-      <c r="A280" s="1">
+    <row r="280">
+      <c r="A280" s="1" t="n">
         <v>278</v>
       </c>
-      <c r="B280" s="2">
+      <c r="B280" s="2" t="n">
         <v>43489</v>
       </c>
-      <c r="C280">
+      <c r="C280" t="n">
         <v>1.1388</v>
       </c>
-      <c r="D280">
+      <c r="D280" t="n">
         <v>54.81</v>
       </c>
-      <c r="E280">
+      <c r="E280" t="n">
         <v>1288.37</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
-      <c r="A281" s="1">
+    <row r="281">
+      <c r="A281" s="1" t="n">
         <v>279</v>
       </c>
-      <c r="B281" s="2">
+      <c r="B281" s="2" t="n">
         <v>43490</v>
       </c>
-      <c r="C281">
+      <c r="C281" t="n">
         <v>1.1313</v>
       </c>
-      <c r="D281">
+      <c r="D281" t="n">
         <v>55.17</v>
       </c>
-      <c r="E281">
+      <c r="E281" t="n">
         <v>1298.47</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
-      <c r="A282" s="1">
+    <row r="282">
+      <c r="A282" s="1" t="n">
         <v>280</v>
       </c>
-      <c r="B282" s="2">
+      <c r="B282" s="2" t="n">
         <v>43493</v>
       </c>
-      <c r="C282">
+      <c r="C282" t="n">
         <v>1.1413</v>
       </c>
-      <c r="D282">
+      <c r="D282" t="n">
         <v>53.72</v>
       </c>
-      <c r="E282">
+      <c r="E282" t="n">
         <v>1271.58</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
-      <c r="A283" s="1">
+    <row r="283">
+      <c r="A283" s="1" t="n">
         <v>281</v>
       </c>
-      <c r="B283" s="2">
+      <c r="B283" s="2" t="n">
         <v>43494</v>
       </c>
-      <c r="C283">
+      <c r="C283" t="n">
         <v>1.143</v>
       </c>
-      <c r="D283">
+      <c r="D283" t="n">
         <v>54.94</v>
       </c>
-      <c r="E283">
+      <c r="E283" t="n">
         <v>1287.37</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
-      <c r="A284" s="1">
+    <row r="284">
+      <c r="A284" s="1" t="n">
         <v>282</v>
       </c>
-      <c r="B284" s="2">
+      <c r="B284" s="2" t="n">
         <v>43495</v>
       </c>
-      <c r="C284">
+      <c r="C284" t="n">
         <v>1.1435</v>
       </c>
-      <c r="D284">
+      <c r="D284" t="n">
         <v>55.95</v>
       </c>
-      <c r="E284">
+      <c r="E284" t="n">
         <v>1301.03</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
-      <c r="A285" s="1">
+    <row r="285">
+      <c r="A285" s="1" t="n">
         <v>283</v>
       </c>
-      <c r="B285" s="2">
+      <c r="B285" s="2" t="n">
         <v>43496</v>
       </c>
-      <c r="C285">
+      <c r="C285" t="n">
         <v>1.1488</v>
       </c>
-      <c r="D285">
+      <c r="D285" t="n">
         <v>55.59</v>
       </c>
-      <c r="E285">
+      <c r="E285" t="n">
         <v>1292.49</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
-      <c r="A286" s="1">
+    <row r="286">
+      <c r="A286" s="1" t="n">
         <v>284</v>
       </c>
-      <c r="B286" s="2">
+      <c r="B286" s="2" t="n">
         <v>43497</v>
       </c>
-      <c r="C286">
+      <c r="C286" t="n">
         <v>1.145</v>
       </c>
-      <c r="D286">
+      <c r="D286" t="n">
         <v>57.1</v>
       </c>
-      <c r="E286">
+      <c r="E286" t="n">
         <v>1315.92</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
-      <c r="A287" s="1">
+    <row r="287">
+      <c r="A287" s="1" t="n">
         <v>285</v>
       </c>
-      <c r="B287" s="2">
+      <c r="B287" s="2" t="n">
         <v>43500</v>
       </c>
-      <c r="C287">
+      <c r="C287" t="n">
         <v>1.1455</v>
       </c>
-      <c r="D287">
+      <c r="D287" t="n">
         <v>56.39</v>
       </c>
-      <c r="E287">
+      <c r="E287" t="n">
         <v>1305.76</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
-      <c r="A288" s="1">
+    <row r="288">
+      <c r="A288" s="1" t="n">
         <v>286</v>
       </c>
-      <c r="B288" s="2">
+      <c r="B288" s="2" t="n">
         <v>43501</v>
       </c>
-      <c r="C288">
+      <c r="C288" t="n">
         <v>1.1436</v>
       </c>
-      <c r="D288">
+      <c r="D288" t="n">
         <v>55.38</v>
       </c>
-      <c r="E288">
+      <c r="E288" t="n">
         <v>1293.07</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
-      <c r="A289" s="1">
+    <row r="289">
+      <c r="A289" s="1" t="n">
         <v>287</v>
       </c>
-      <c r="B289" s="2">
+      <c r="B289" s="2" t="n">
         <v>43502</v>
       </c>
-      <c r="C289">
+      <c r="C289" t="n">
         <v>1.141</v>
       </c>
-      <c r="D289">
+      <c r="D289" t="n">
         <v>55.65</v>
       </c>
-      <c r="E289">
+      <c r="E289" t="n">
         <v>1298.56</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
-      <c r="A290" s="1">
+    <row r="290">
+      <c r="A290" s="1" t="n">
         <v>288</v>
       </c>
-      <c r="B290" s="2">
+      <c r="B290" s="2" t="n">
         <v>43503</v>
       </c>
-      <c r="C290">
+      <c r="C290" t="n">
         <v>1.1366</v>
       </c>
-      <c r="D290">
+      <c r="D290" t="n">
         <v>54.25</v>
       </c>
-      <c r="E290">
+      <c r="E290" t="n">
         <v>1282.04</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
-      <c r="A291" s="1">
+    <row r="291">
+      <c r="A291" s="1" t="n">
         <v>289</v>
       </c>
-      <c r="B291" s="2">
+      <c r="B291" s="2" t="n">
         <v>43504</v>
       </c>
-      <c r="C291">
+      <c r="C291" t="n">
         <v>1.1339</v>
       </c>
-      <c r="D291">
+      <c r="D291" t="n">
         <v>54.3</v>
       </c>
-      <c r="E291">
+      <c r="E291" t="n">
         <v>1284.54</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
-      <c r="A292" s="1">
+    <row r="292">
+      <c r="A292" s="1" t="n">
         <v>290</v>
       </c>
-      <c r="B292" s="2">
+      <c r="B292" s="2" t="n">
         <v>43507</v>
       </c>
-      <c r="C292">
+      <c r="C292" t="n">
         <v>1.1324</v>
       </c>
-      <c r="D292">
+      <c r="D292" t="n">
         <v>53.97</v>
       </c>
-      <c r="E292">
+      <c r="E292" t="n">
         <v>1280.93</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
-      <c r="A293" s="1">
+    <row r="293">
+      <c r="A293" s="1" t="n">
         <v>291</v>
       </c>
-      <c r="B293" s="2">
+      <c r="B293" s="2" t="n">
         <v>43508</v>
       </c>
-      <c r="C293">
+      <c r="C293" t="n">
         <v>1.1279</v>
       </c>
-      <c r="D293">
+      <c r="D293" t="n">
         <v>54.77</v>
       </c>
-      <c r="E293">
+      <c r="E293" t="n">
         <v>1295.18</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
-      <c r="A294" s="1">
+    <row r="294">
+      <c r="A294" s="1" t="n">
         <v>292</v>
       </c>
-      <c r="B294" s="2">
+      <c r="B294" s="2" t="n">
         <v>43509</v>
       </c>
-      <c r="C294">
+      <c r="C294" t="n">
         <v>1.1335</v>
       </c>
-      <c r="D294">
+      <c r="D294" t="n">
         <v>55.68</v>
       </c>
-      <c r="E294">
+      <c r="E294" t="n">
         <v>1304.1</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
-      <c r="A295" s="1">
+    <row r="295">
+      <c r="A295" s="1" t="n">
         <v>293</v>
       </c>
-      <c r="B295" s="2">
+      <c r="B295" s="2" t="n">
         <v>43510</v>
       </c>
-      <c r="C295">
+      <c r="C295" t="n">
         <v>1.1265</v>
       </c>
-      <c r="D295">
+      <c r="D295" t="n">
         <v>56.2</v>
       </c>
-      <c r="E295">
+      <c r="E295" t="n">
         <v>1316.24</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
-      <c r="A296" s="1">
+    <row r="296">
+      <c r="A296" s="1" t="n">
         <v>294</v>
       </c>
-      <c r="B296" s="2">
+      <c r="B296" s="2" t="n">
         <v>43511</v>
       </c>
-      <c r="C296">
+      <c r="C296" t="n">
         <v>1.1295</v>
       </c>
-      <c r="D296">
+      <c r="D296" t="n">
         <v>57.49</v>
       </c>
-      <c r="E296">
+      <c r="E296" t="n">
         <v>1332.23</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
-      <c r="A297" s="1">
+    <row r="297">
+      <c r="A297" s="1" t="n">
         <v>295</v>
       </c>
-      <c r="B297" s="2">
+      <c r="B297" s="2" t="n">
         <v>43514</v>
       </c>
-      <c r="C297">
+      <c r="C297" t="n">
         <v>1.1298</v>
       </c>
-    </row>
-    <row r="298" spans="1:5">
-      <c r="A298" s="1">
+      <c r="D297" t="inlineStr"/>
+      <c r="E297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
         <v>296</v>
       </c>
-      <c r="B298" s="2">
+      <c r="B298" s="2" t="n">
         <v>43515</v>
       </c>
-      <c r="C298">
+      <c r="C298" t="n">
         <v>1.1312</v>
       </c>
-      <c r="D298">
+      <c r="D298" t="n">
         <v>57.92</v>
       </c>
-      <c r="E298">
+      <c r="E298" t="n">
         <v>1337.04</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
-      <c r="A299" s="1">
+    <row r="299">
+      <c r="A299" s="1" t="n">
         <v>297</v>
       </c>
-      <c r="B299" s="2">
+      <c r="B299" s="2" t="n">
         <v>43516</v>
       </c>
-      <c r="C299">
+      <c r="C299" t="n">
         <v>1.1343</v>
       </c>
-      <c r="D299">
+      <c r="D299" t="n">
         <v>58.55</v>
       </c>
-      <c r="E299">
+      <c r="E299" t="n">
         <v>1343.62</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
-      <c r="A300" s="1">
+    <row r="300">
+      <c r="A300" s="1" t="n">
         <v>298</v>
       </c>
-      <c r="B300" s="2">
+      <c r="B300" s="2" t="n">
         <v>43517</v>
       </c>
-      <c r="C300">
+      <c r="C300" t="n">
         <v>1.1346</v>
       </c>
-      <c r="D300">
+      <c r="D300" t="n">
         <v>58.21</v>
       </c>
-      <c r="E300">
+      <c r="E300" t="n">
         <v>1338.66</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
-      <c r="A301" s="1">
+    <row r="301">
+      <c r="A301" s="1" t="n">
         <v>299</v>
       </c>
-      <c r="B301" s="2">
+      <c r="B301" s="2" t="n">
         <v>43518</v>
       </c>
-      <c r="C301">
+      <c r="C301" t="n">
         <v>1.1343</v>
       </c>
-      <c r="D301">
+      <c r="D301" t="n">
         <v>58.65</v>
       </c>
-      <c r="E301">
+      <c r="E301" t="n">
         <v>1345.02</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
-      <c r="A302" s="1">
+    <row r="302">
+      <c r="A302" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="B302" s="2">
+      <c r="B302" s="2" t="n">
         <v>43521</v>
       </c>
-      <c r="C302">
+      <c r="C302" t="n">
         <v>1.1342</v>
       </c>
-      <c r="D302">
+      <c r="D302" t="n">
         <v>56.8</v>
       </c>
-      <c r="E302">
+      <c r="E302" t="n">
         <v>1319.26</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
-      <c r="A303" s="1">
+    <row r="303">
+      <c r="A303" s="1" t="n">
         <v>301</v>
       </c>
-      <c r="B303" s="2">
+      <c r="B303" s="2" t="n">
         <v>43522</v>
       </c>
-      <c r="C303">
+      <c r="C303" t="n">
         <v>1.1368</v>
       </c>
-      <c r="D303">
+      <c r="D303" t="n">
         <v>57.04</v>
       </c>
-      <c r="E303">
+      <c r="E303" t="n">
         <v>1320.79</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
-      <c r="A304" s="1">
+    <row r="304">
+      <c r="A304" s="1" t="n">
         <v>302</v>
       </c>
-      <c r="B304" s="2">
+      <c r="B304" s="2" t="n">
         <v>43523</v>
       </c>
-      <c r="C304">
+      <c r="C304" t="n">
         <v>1.1393</v>
       </c>
-      <c r="D304">
+      <c r="D304" t="n">
         <v>58.43</v>
       </c>
-      <c r="E304">
+      <c r="E304" t="n">
         <v>1338.37</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
-      <c r="A305" s="1">
+    <row r="305">
+      <c r="A305" s="1" t="n">
         <v>303</v>
       </c>
-      <c r="B305" s="2">
+      <c r="B305" s="2" t="n">
         <v>43524</v>
       </c>
-      <c r="C305">
+      <c r="C305" t="n">
         <v>1.138</v>
       </c>
-      <c r="D305">
+      <c r="D305" t="n">
         <v>58.63</v>
       </c>
-      <c r="E305">
+      <c r="E305" t="n">
         <v>1342.08</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
-      <c r="A306" s="1">
+    <row r="306">
+      <c r="A306" s="1" t="n">
         <v>304</v>
       </c>
-      <c r="B306" s="2">
+      <c r="B306" s="2" t="n">
         <v>43525</v>
       </c>
-      <c r="C306">
+      <c r="C306" t="n">
         <v>1.1373</v>
       </c>
-      <c r="D306">
+      <c r="D306" t="n">
         <v>57.19</v>
       </c>
-      <c r="E306">
+      <c r="E306" t="n">
         <v>1322.53</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
-      <c r="A307" s="1">
+    <row r="307">
+      <c r="A307" s="1" t="n">
         <v>305</v>
       </c>
-      <c r="B307" s="2">
+      <c r="B307" s="2" t="n">
         <v>43528</v>
       </c>
-      <c r="C307">
+      <c r="C307" t="n">
         <v>1.1376</v>
       </c>
-      <c r="D307">
+      <c r="D307" t="n">
         <v>57.98</v>
       </c>
-      <c r="E307">
+      <c r="E307" t="n">
         <v>1333.32</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
-      <c r="A308" s="1">
+    <row r="308">
+      <c r="A308" s="1" t="n">
         <v>306</v>
       </c>
-      <c r="B308" s="2">
+      <c r="B308" s="2" t="n">
         <v>43529</v>
       </c>
-      <c r="C308">
+      <c r="C308" t="n">
         <v>1.1337</v>
       </c>
-      <c r="D308">
+      <c r="D308" t="n">
         <v>57.94</v>
       </c>
-      <c r="E308">
+      <c r="E308" t="n">
         <v>1335.53</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
-      <c r="A309" s="1">
+    <row r="309">
+      <c r="A309" s="1" t="n">
         <v>307</v>
       </c>
-      <c r="B309" s="2">
+      <c r="B309" s="2" t="n">
         <v>43530</v>
       </c>
-      <c r="C309">
+      <c r="C309" t="n">
         <v>1.1307</v>
       </c>
-      <c r="D309">
+      <c r="D309" t="n">
         <v>57.61</v>
       </c>
-      <c r="E309">
+      <c r="E309" t="n">
         <v>1333.06</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
-      <c r="A310" s="1">
+    <row r="310">
+      <c r="A310" s="1" t="n">
         <v>308</v>
       </c>
-      <c r="B310" s="2">
+      <c r="B310" s="2" t="n">
         <v>43531</v>
       </c>
-      <c r="C310">
+      <c r="C310" t="n">
         <v>1.1314</v>
       </c>
-      <c r="D310">
+      <c r="D310" t="n">
         <v>57.99</v>
       </c>
-      <c r="E310">
+      <c r="E310" t="n">
         <v>1337.88</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
-      <c r="A311" s="1">
+    <row r="311">
+      <c r="A311" s="1" t="n">
         <v>309</v>
       </c>
-      <c r="B311" s="2">
+      <c r="B311" s="2" t="n">
         <v>43532</v>
       </c>
-      <c r="C311">
+      <c r="C311" t="n">
         <v>1.1198</v>
       </c>
-      <c r="D311">
+      <c r="D311" t="n">
         <v>57.55</v>
       </c>
-      <c r="E311">
+      <c r="E311" t="n">
         <v>1340.07</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
-      <c r="A312" s="1">
+    <row r="312">
+      <c r="A312" s="1" t="n">
         <v>310</v>
       </c>
-      <c r="B312" s="2">
+      <c r="B312" s="2" t="n">
         <v>43535</v>
       </c>
-      <c r="C312">
+      <c r="C312" t="n">
         <v>1.1232</v>
       </c>
-      <c r="D312">
+      <c r="D312" t="n">
         <v>58.22</v>
       </c>
-      <c r="E312">
+      <c r="E312" t="n">
         <v>1347.05</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
-      <c r="A313" s="1">
+    <row r="313">
+      <c r="A313" s="1" t="n">
         <v>311</v>
       </c>
-      <c r="B313" s="2">
+      <c r="B313" s="2" t="n">
         <v>43536</v>
       </c>
-      <c r="C313">
+      <c r="C313" t="n">
         <v>1.1259</v>
       </c>
-      <c r="D313">
+      <c r="D313" t="n">
         <v>58.33</v>
       </c>
-      <c r="E313">
+      <c r="E313" t="n">
         <v>1346.63</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
-      <c r="A314" s="1">
+    <row r="314">
+      <c r="A314" s="1" t="n">
         <v>312</v>
       </c>
-      <c r="B314" s="2">
+      <c r="B314" s="2" t="n">
         <v>43537</v>
       </c>
-      <c r="C314">
+      <c r="C314" t="n">
         <v>1.1287</v>
       </c>
-      <c r="D314">
+      <c r="D314" t="n">
         <v>59.83</v>
       </c>
-      <c r="E314">
+      <c r="E314" t="n">
         <v>1365.64</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
-      <c r="A315" s="1">
+    <row r="315">
+      <c r="A315" s="1" t="n">
         <v>313</v>
       </c>
-      <c r="B315" s="2">
+      <c r="B315" s="2" t="n">
         <v>43538</v>
       </c>
-      <c r="C315">
+      <c r="C315" t="n">
         <v>1.1331</v>
       </c>
-      <c r="D315">
+      <c r="D315" t="n">
         <v>60</v>
       </c>
-      <c r="E315">
+      <c r="E315" t="n">
         <v>1364.76</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
-      <c r="A316" s="1">
+    <row r="316">
+      <c r="A316" s="1" t="n">
         <v>314</v>
       </c>
-      <c r="B316" s="2">
+      <c r="B316" s="2" t="n">
         <v>43539</v>
       </c>
-      <c r="C316">
+      <c r="C316" t="n">
         <v>1.1308</v>
       </c>
-      <c r="D316">
+      <c r="D316" t="n">
         <v>59.85</v>
       </c>
-      <c r="E316">
+      <c r="E316" t="n">
         <v>1364.37</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
-      <c r="A317" s="1">
+    <row r="317">
+      <c r="A317" s="1" t="n">
         <v>315</v>
       </c>
-      <c r="B317" s="2">
+      <c r="B317" s="2" t="n">
         <v>43542</v>
       </c>
-      <c r="C317">
+      <c r="C317" t="n">
         <v>1.132</v>
       </c>
-      <c r="D317">
+      <c r="D317" t="n">
         <v>60.42</v>
       </c>
-      <c r="E317">
+      <c r="E317" t="n">
         <v>1371.45</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
-      <c r="A318" s="1">
+    <row r="318">
+      <c r="A318" s="1" t="n">
         <v>316</v>
       </c>
-      <c r="B318" s="2">
+      <c r="B318" s="2" t="n">
         <v>43543</v>
       </c>
-      <c r="C318">
+      <c r="C318" t="n">
         <v>1.1336</v>
       </c>
-      <c r="D318">
+      <c r="D318" t="n">
         <v>60.27</v>
       </c>
-      <c r="E318">
+      <c r="E318" t="n">
         <v>1368.16</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
-      <c r="A319" s="1">
+    <row r="319">
+      <c r="A319" s="1" t="n">
         <v>317</v>
       </c>
-      <c r="B319" s="2">
+      <c r="B319" s="2" t="n">
         <v>43544</v>
       </c>
-      <c r="C319">
+      <c r="C319" t="n">
         <v>1.1355</v>
       </c>
-      <c r="D319">
+      <c r="D319" t="n">
         <v>61.3</v>
       </c>
-      <c r="E319">
+      <c r="E319" t="n">
         <v>1381.12</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
-      <c r="A320" s="1">
+    <row r="320">
+      <c r="A320" s="1" t="n">
         <v>318</v>
       </c>
-      <c r="B320" s="2">
+      <c r="B320" s="2" t="n">
         <v>43545</v>
       </c>
-      <c r="C320">
+      <c r="C320" t="n">
         <v>1.1428</v>
       </c>
-      <c r="D320">
+      <c r="D320" t="n">
         <v>61.02</v>
       </c>
-      <c r="E320">
+      <c r="E320" t="n">
         <v>1371.78</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
-      <c r="A321" s="1">
+    <row r="321">
+      <c r="A321" s="1" t="n">
         <v>319</v>
       </c>
-      <c r="B321" s="2">
+      <c r="B321" s="2" t="n">
         <v>43546</v>
       </c>
-      <c r="C321">
+      <c r="C321" t="n">
         <v>1.1375</v>
       </c>
-      <c r="D321">
+      <c r="D321" t="n">
         <v>60.08</v>
       </c>
-      <c r="E321">
+      <c r="E321" t="n">
         <v>1362.63</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
-      <c r="A322" s="1">
+    <row r="322">
+      <c r="A322" s="1" t="n">
         <v>320</v>
       </c>
-      <c r="B322" s="2">
+      <c r="B322" s="2" t="n">
         <v>43549</v>
       </c>
-      <c r="C322">
+      <c r="C322" t="n">
         <v>1.1296</v>
       </c>
-      <c r="D322">
+      <c r="D322" t="n">
         <v>60.13</v>
       </c>
-      <c r="E322">
+      <c r="E322" t="n">
         <v>1369.18</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
-      <c r="A323" s="1">
+    <row r="323">
+      <c r="A323" s="1" t="n">
         <v>321</v>
       </c>
-      <c r="B323" s="2">
+      <c r="B323" s="2" t="n">
         <v>43550</v>
       </c>
-      <c r="C323">
+      <c r="C323" t="n">
         <v>1.1316</v>
       </c>
-      <c r="D323">
+      <c r="D323" t="n">
         <v>61.22</v>
       </c>
-      <c r="E323">
+      <c r="E323" t="n">
         <v>1382.95</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
-      <c r="A324" s="1">
+    <row r="324">
+      <c r="A324" s="1" t="n">
         <v>322</v>
       </c>
-      <c r="B324" s="2">
+      <c r="B324" s="2" t="n">
         <v>43551</v>
       </c>
-      <c r="C324">
+      <c r="C324" t="n">
         <v>1.1275</v>
       </c>
-      <c r="D324">
+      <c r="D324" t="n">
         <v>60.57</v>
       </c>
-      <c r="E324">
+      <c r="E324" t="n">
         <v>1376.93</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
-      <c r="A325" s="1">
+    <row r="325">
+      <c r="A325" s="1" t="n">
         <v>323</v>
       </c>
-      <c r="B325" s="2">
+      <c r="B325" s="2" t="n">
         <v>43552</v>
       </c>
-      <c r="C325">
+      <c r="C325" t="n">
         <v>1.1252</v>
       </c>
-      <c r="D325">
+      <c r="D325" t="n">
         <v>60.59</v>
       </c>
-      <c r="E325">
+      <c r="E325" t="n">
         <v>1378.96</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
-      <c r="A326" s="1">
+    <row r="326">
+      <c r="A326" s="1" t="n">
         <v>324</v>
       </c>
-      <c r="B326" s="2">
+      <c r="B326" s="2" t="n">
         <v>43553</v>
       </c>
-      <c r="C326">
+      <c r="C326" t="n">
         <v>1.123</v>
       </c>
-      <c r="D326">
+      <c r="D326" t="n">
         <v>61.31</v>
       </c>
-      <c r="E326">
+      <c r="E326" t="n">
         <v>1390.78</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
-      <c r="A327" s="1">
+    <row r="327">
+      <c r="A327" s="1" t="n">
         <v>325</v>
       </c>
-      <c r="B327" s="2">
+      <c r="B327" s="2" t="n">
         <v>43556</v>
       </c>
-      <c r="C327">
+      <c r="C327" t="n">
         <v>1.1224</v>
       </c>
-      <c r="D327">
+      <c r="D327" t="n">
         <v>62.86</v>
       </c>
-      <c r="E327">
+      <c r="E327" t="n">
         <v>1413.12</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
-      <c r="A328" s="1">
+    <row r="328">
+      <c r="A328" s="1" t="n">
         <v>326</v>
       </c>
-      <c r="B328" s="2">
+      <c r="B328" s="2" t="n">
         <v>43557</v>
       </c>
-      <c r="C328">
+      <c r="C328" t="n">
         <v>1.1206</v>
       </c>
-      <c r="D328">
+      <c r="D328" t="n">
         <v>63.92</v>
       </c>
-      <c r="E328">
+      <c r="E328" t="n">
         <v>1429.53</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
-      <c r="A329" s="1">
+    <row r="329">
+      <c r="A329" s="1" t="n">
         <v>327</v>
       </c>
-      <c r="B329" s="2">
+      <c r="B329" s="2" t="n">
         <v>43558</v>
       </c>
-      <c r="C329">
+      <c r="C329" t="n">
         <v>1.1204</v>
       </c>
-      <c r="D329">
+      <c r="D329" t="n">
         <v>63.75</v>
       </c>
-      <c r="E329">
+      <c r="E329" t="n">
         <v>1427.29</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
-      <c r="A330" s="1">
+    <row r="330">
+      <c r="A330" s="1" t="n">
         <v>328</v>
       </c>
-      <c r="B330" s="2">
+      <c r="B330" s="2" t="n">
         <v>43559</v>
       </c>
-      <c r="C330">
+      <c r="C330" t="n">
         <v>1.1247</v>
       </c>
-      <c r="D330">
+      <c r="D330" t="n">
         <v>63.42</v>
       </c>
-      <c r="E330">
+      <c r="E330" t="n">
         <v>1419.19</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
-      <c r="A331" s="1">
+    <row r="331">
+      <c r="A331" s="1" t="n">
         <v>329</v>
       </c>
-      <c r="B331" s="2">
+      <c r="B331" s="2" t="n">
         <v>43560</v>
       </c>
-      <c r="C331">
+      <c r="C331" t="n">
         <v>1.1226</v>
       </c>
-      <c r="D331">
+      <c r="D331" t="n">
         <v>64.58</v>
       </c>
-      <c r="E331">
+      <c r="E331" t="n">
         <v>1437.23</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
-      <c r="A332" s="1">
+    <row r="332">
+      <c r="A332" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="B332" s="2">
+      <c r="B332" s="2" t="n">
         <v>43563</v>
       </c>
-      <c r="C332">
+      <c r="C332" t="n">
         <v>1.122</v>
       </c>
-      <c r="D332">
+      <c r="D332" t="n">
         <v>65.75</v>
       </c>
-      <c r="E332">
+      <c r="E332" t="n">
         <v>1454.24</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
-      <c r="A333" s="1">
+    <row r="333">
+      <c r="A333" s="1" t="n">
         <v>331</v>
       </c>
-      <c r="B333" s="2">
+      <c r="B333" s="2" t="n">
         <v>43564</v>
       </c>
-      <c r="C333">
+      <c r="C333" t="n">
         <v>1.1256</v>
       </c>
-      <c r="D333">
+      <c r="D333" t="n">
         <v>65.40000000000001</v>
       </c>
-      <c r="E333">
+      <c r="E333" t="n">
         <v>1446.34</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
-      <c r="A334" s="1">
+    <row r="334">
+      <c r="A334" s="1" t="n">
         <v>332</v>
       </c>
-      <c r="B334" s="2">
+      <c r="B334" s="2" t="n">
         <v>43565</v>
       </c>
-      <c r="C334">
+      <c r="C334" t="n">
         <v>1.1267</v>
       </c>
-      <c r="D334">
+      <c r="D334" t="n">
         <v>65.81</v>
       </c>
-      <c r="E334">
+      <c r="E334" t="n">
         <v>1451.21</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
-      <c r="A335" s="1">
+    <row r="335">
+      <c r="A335" s="1" t="n">
         <v>333</v>
       </c>
-      <c r="B335" s="2">
+      <c r="B335" s="2" t="n">
         <v>43566</v>
       </c>
-      <c r="C335">
+      <c r="C335" t="n">
         <v>1.1277</v>
       </c>
-      <c r="D335">
+      <c r="D335" t="n">
         <v>65.09</v>
       </c>
-      <c r="E335">
+      <c r="E335" t="n">
         <v>1440.27</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
-      <c r="A336" s="1">
+    <row r="336">
+      <c r="A336" s="1" t="n">
         <v>334</v>
       </c>
-      <c r="B336" s="2">
+      <c r="B336" s="2" t="n">
         <v>43567</v>
       </c>
-      <c r="C336">
+      <c r="C336" t="n">
         <v>1.1261</v>
       </c>
-      <c r="D336">
+      <c r="D336" t="n">
         <v>65.26000000000001</v>
       </c>
-      <c r="E336">
+      <c r="E336" t="n">
         <v>1443.96</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
-      <c r="A337" s="1">
+    <row r="337">
+      <c r="A337" s="1" t="n">
         <v>335</v>
       </c>
-      <c r="B337" s="2">
+      <c r="B337" s="2" t="n">
         <v>43570</v>
       </c>
-      <c r="C337">
+      <c r="C337" t="n">
         <v>1.1305</v>
       </c>
-      <c r="D337">
+      <c r="D337" t="n">
         <v>64.98999999999999</v>
       </c>
-      <c r="E337">
+      <c r="E337" t="n">
         <v>1436.61</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
-      <c r="A338" s="1">
+    <row r="338">
+      <c r="A338" s="1" t="n">
         <v>336</v>
       </c>
-      <c r="B338" s="2">
+      <c r="B338" s="2" t="n">
         <v>43571</v>
       </c>
-      <c r="C338">
+      <c r="C338" t="n">
         <v>1.1305</v>
       </c>
-      <c r="D338">
+      <c r="D338" t="n">
         <v>65.66</v>
       </c>
-      <c r="E338">
+      <c r="E338" t="n">
         <v>1446</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
-      <c r="A339" s="1">
+    <row r="339">
+      <c r="A339" s="1" t="n">
         <v>337</v>
       </c>
-      <c r="B339" s="2">
+      <c r="B339" s="2" t="n">
         <v>43572</v>
       </c>
-      <c r="C339">
+      <c r="C339" t="n">
         <v>1.1285</v>
       </c>
-      <c r="D339">
+      <c r="D339" t="n">
         <v>65.19</v>
       </c>
-      <c r="E339">
+      <c r="E339" t="n">
         <v>1441.03</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
-      <c r="A340" s="1">
+    <row r="340">
+      <c r="A340" s="1" t="n">
         <v>338</v>
       </c>
-      <c r="B340" s="2">
+      <c r="B340" s="2" t="n">
         <v>43573</v>
       </c>
-      <c r="C340">
+      <c r="C340" t="n">
         <v>1.1297</v>
       </c>
-      <c r="D340">
+      <c r="D340" t="n">
         <v>65.42</v>
       </c>
-      <c r="E340">
+      <c r="E340" t="n">
         <v>1443.28</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
-      <c r="A341" s="1">
+    <row r="341">
+      <c r="A341" s="1" t="n">
         <v>339</v>
       </c>
-      <c r="B341" s="2">
+      <c r="B341" s="2" t="n">
         <v>43574</v>
       </c>
-      <c r="C341">
+      <c r="C341" t="n">
         <v>1.1236</v>
       </c>
-    </row>
-    <row r="342" spans="1:5">
-      <c r="A342" s="1">
+      <c r="D341" t="inlineStr"/>
+      <c r="E341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
         <v>340</v>
       </c>
-      <c r="B342" s="2">
+      <c r="B342" s="2" t="n">
         <v>43577</v>
       </c>
-      <c r="C342">
+      <c r="C342" t="n">
         <v>1.1245</v>
       </c>
-      <c r="D342">
+      <c r="D342" t="n">
         <v>67.15000000000001</v>
       </c>
-      <c r="E342">
+      <c r="E342" t="n">
         <v>1471.89</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
-      <c r="A343" s="1">
+    <row r="343">
+      <c r="A343" s="1" t="n">
         <v>341</v>
       </c>
-      <c r="B343" s="2">
+      <c r="B343" s="2" t="n">
         <v>43578</v>
       </c>
-      <c r="C343">
+      <c r="C343" t="n">
         <v>1.1259</v>
       </c>
-      <c r="D343">
+      <c r="D343" t="n">
         <v>67.72</v>
       </c>
-      <c r="E343">
+      <c r="E343" t="n">
         <v>1478.74</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
-      <c r="A344" s="1">
+    <row r="344">
+      <c r="A344" s="1" t="n">
         <v>342</v>
       </c>
-      <c r="B344" s="2">
+      <c r="B344" s="2" t="n">
         <v>43579</v>
       </c>
-      <c r="C344">
+      <c r="C344" t="n">
         <v>1.1224</v>
       </c>
-      <c r="D344">
+      <c r="D344" t="n">
         <v>67.14</v>
       </c>
-      <c r="E344">
+      <c r="E344" t="n">
         <v>1473.52</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
-      <c r="A345" s="1">
+    <row r="345">
+      <c r="A345" s="1" t="n">
         <v>343</v>
       </c>
-      <c r="B345" s="2">
+      <c r="B345" s="2" t="n">
         <v>43580</v>
       </c>
-      <c r="C345">
+      <c r="C345" t="n">
         <v>1.1153</v>
       </c>
-      <c r="D345">
+      <c r="D345" t="n">
         <v>66.37</v>
       </c>
-      <c r="E345">
+      <c r="E345" t="n">
         <v>1468.62</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
-      <c r="A346" s="1">
+    <row r="346">
+      <c r="A346" s="1" t="n">
         <v>344</v>
       </c>
-      <c r="B346" s="2">
+      <c r="B346" s="2" t="n">
         <v>43581</v>
       </c>
-      <c r="C346">
+      <c r="C346" t="n">
         <v>1.1137</v>
       </c>
-      <c r="D346">
+      <c r="D346" t="n">
         <v>64.27</v>
       </c>
-      <c r="E346">
+      <c r="E346" t="n">
         <v>1440.1</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
-      <c r="A347" s="1">
+    <row r="347">
+      <c r="A347" s="1" t="n">
         <v>345</v>
       </c>
-      <c r="B347" s="2">
+      <c r="B347" s="2" t="n">
         <v>43584</v>
       </c>
-      <c r="C347">
+      <c r="C347" t="n">
         <v>1.115</v>
       </c>
-      <c r="D347">
+      <c r="D347" t="n">
         <v>64.94</v>
       </c>
-      <c r="E347">
+      <c r="E347" t="n">
         <v>1448.56</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>